--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total Iterations</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -61,6 +73,180 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram of 1test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Gene Pairs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PCC Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,163 +541,163 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>-1</v>
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>-0.95</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>161</v>
+        <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>86</v>
+        <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>-0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>45</v>
+        <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>11</v>
+        <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>10</v>
+        <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>-0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>-0.6499999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>12</v>
+        <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>22</v>
+        <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>-0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>19</v>
+        <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>15</v>
+        <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>9</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>-0.3999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>9</v>
+        <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>16</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>-0.2999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>10</v>
+        <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>-0.1499999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>-0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>-0.04999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -524,162 +710,162 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0</v>
+        <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>0.1500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>0.2000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>10</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>0.3500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>11</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>9</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>0.4500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>27</v>
+        <v>0.5</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6</v>
+        <v>0.55</v>
       </c>
       <c r="B32">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>20</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>0.6000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>0.6500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>18</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>0.7000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>18</v>
+        <v>0.75</v>
       </c>
       <c r="B36">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>33</v>
+        <v>0.8</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>38</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>0.8500000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>67</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>0.9000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>94</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>0.9500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -693,5 +879,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -91,7 +91,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Histogram of 1test</a:t>
+              <a:t>Histogram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -101,34 +101,133 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.6499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.3999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.2999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.09999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.04999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.7</c:v>
+                <c:pt idx="19">
+                  <c:v>0.05000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.8500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -142,11 +241,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -154,7 +253,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Gene Pairs</a:t>
+                  <a:t>PCC</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -173,7 +272,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
           <c:tx>
@@ -186,7 +285,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>PCC Value</a:t>
+                  <a:t>Number of Gene Pairs</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -561,7 +660,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -569,7 +668,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -577,7 +676,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -585,7 +684,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -593,7 +692,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -601,7 +700,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -609,7 +708,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -617,7 +716,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -625,7 +724,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -633,7 +732,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -641,7 +740,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -649,7 +748,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -657,7 +756,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -665,7 +764,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -761,7 +860,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -769,7 +868,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -777,7 +876,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -785,7 +884,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -793,7 +892,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -801,7 +900,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -817,7 +916,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -825,7 +924,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -833,7 +932,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -841,7 +940,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -849,7 +948,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -857,7 +956,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -865,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Total Iterations</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>p</t>
@@ -640,19 +634,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -660,7 +654,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -668,7 +662,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -676,7 +670,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -684,7 +678,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -692,7 +686,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -700,7 +694,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -708,7 +702,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -716,7 +710,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -724,7 +718,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -732,7 +726,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -740,7 +734,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -748,7 +742,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -756,7 +750,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -764,7 +758,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -860,7 +854,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -876,7 +870,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -884,7 +878,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -892,7 +886,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -900,7 +894,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -916,7 +910,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -924,7 +918,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -932,7 +926,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -940,7 +934,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -948,7 +942,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -956,7 +950,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -964,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -634,19 +634,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>-1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>-0.95</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -662,7 +662,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -678,7 +678,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -686,7 +686,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -694,7 +694,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -710,7 +710,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -742,7 +742,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -854,7 +854,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -870,7 +870,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -894,7 +894,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Total Iterations</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -102,125 +96,131 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$41</c:f>
+              <c:f>Sheet1!$A$1:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-0.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>-0.85</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-0.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>-0.75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>-0.7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>-0.6499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>-0.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-0.55</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>-0.45</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>-0.3999999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>-0.35</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>-0.2999999999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>-0.25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>-0.2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>-0.1499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>-0.09999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>-0.04999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>0.05000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>0.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>0.1500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>0.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>0.3500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>0.4000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>0.4500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>0.55</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>0.6000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>0.6500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>0.7000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>0.8500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>0.9000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>0.9500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -634,11 +634,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -646,7 +646,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -662,7 +662,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -678,7 +678,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -686,7 +686,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -694,7 +694,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -710,7 +710,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -742,7 +742,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -758,7 +758,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -870,7 +870,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -66,7 +66,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:style val="11"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -96,132 +96,132 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$41</c:f>
+              <c:f>Sheet1!$B$1:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.95</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.9</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.85</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.8</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6499999999999999</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.55</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.45</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3999999999999999</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.35</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.2999999999999999</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.1499999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.09999999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.04999999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.05000000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1000000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1500000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2000000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3500000000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4000000000000001</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4500000000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6500000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7000000000000002</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.75</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.8500000000000001</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9000000000000001</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9500000000000002</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +646,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -662,7 +662,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -678,7 +678,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -694,7 +694,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -710,7 +710,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -742,7 +742,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -758,7 +758,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -870,7 +870,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -894,7 +894,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -104,97 +104,97 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>25</c:v>
@@ -203,25 +203,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>33</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>109</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>133</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +646,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -678,7 +678,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -686,7 +686,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -694,7 +694,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -710,7 +710,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -742,7 +742,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -758,7 +758,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -854,7 +854,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -104,124 +104,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>74</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +646,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -662,7 +662,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -686,7 +686,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -758,7 +758,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -854,7 +854,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -870,7 +870,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -894,7 +894,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -94,6 +94,138 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.3999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.2999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.09999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.04999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.05000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$1:$B$41</c:f>
@@ -104,49 +236,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -185,43 +317,43 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>77</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>106</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>111</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,6 +386,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -646,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -654,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -662,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -670,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -678,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -686,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -694,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -702,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -710,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -718,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -734,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -742,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -750,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -758,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -862,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -870,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -878,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -886,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -894,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -910,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -918,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -926,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -934,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -942,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -950,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -958,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Total Iterations</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -96,131 +102,128 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>-0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.95</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.9</c:v>
+                  <c:v>-0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.85</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.8</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.75</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.7</c:v>
+                  <c:v>-0.6499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6499999999999999</c:v>
+                  <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.6</c:v>
+                  <c:v>-0.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.55</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.45</c:v>
+                  <c:v>-0.3999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3999999999999999</c:v>
+                  <c:v>-0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.35</c:v>
+                  <c:v>-0.2999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.2999999999999999</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.2</c:v>
+                  <c:v>-0.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.1499999999999999</c:v>
+                  <c:v>-0.09999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.09999999999999998</c:v>
+                  <c:v>-0.04999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.04999999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.05000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.05000000000000004</c:v>
+                  <c:v>0.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1000000000000001</c:v>
+                  <c:v>0.1500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1500000000000001</c:v>
+                  <c:v>0.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2000000000000002</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3</c:v>
+                  <c:v>0.3500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3500000000000001</c:v>
+                  <c:v>0.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4000000000000001</c:v>
+                  <c:v>0.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4500000000000002</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>0.6500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6500000000000001</c:v>
+                  <c:v>0.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7000000000000002</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8</c:v>
+                  <c:v>0.8500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.8500000000000001</c:v>
+                  <c:v>0.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9000000000000001</c:v>
+                  <c:v>0.9500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -228,132 +231,129 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$41</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>117</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,11 +767,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>-1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -779,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -231,129 +231,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:f>Sheet1!$B$1:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>90</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>110</c:v>
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +782,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +790,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +798,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +806,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +814,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +822,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +830,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +838,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +846,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +854,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +862,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +870,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +878,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +886,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +894,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -987,7 +990,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1003,7 +1006,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1014,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1022,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1030,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1043,7 +1046,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1054,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1062,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1070,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1078,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1086,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -239,91 +239,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>18</c:v>
@@ -332,31 +332,31 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>104</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>108</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,7 +782,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -790,7 +790,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -798,7 +798,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -806,7 +806,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -822,7 +822,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -830,7 +830,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -838,7 +838,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -846,7 +846,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -862,7 +862,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -870,7 +870,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -878,7 +878,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -886,7 +886,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -894,7 +894,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -990,7 +990,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -998,7 +998,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Total Iterations</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -239,46 +233,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
@@ -317,46 +311,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>55</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>83</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>88</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,11 +764,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -782,7 +776,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -790,7 +784,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -798,7 +792,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -806,7 +800,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -822,7 +816,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -830,7 +824,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -838,7 +832,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -846,7 +840,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -854,7 +848,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -862,7 +856,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -870,7 +864,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -878,7 +872,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -886,7 +880,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -990,7 +984,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -998,7 +992,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1006,7 +1000,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1014,7 +1008,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1022,7 +1016,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1030,7 +1024,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1046,7 +1040,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1054,7 +1048,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1062,7 +1056,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1070,7 +1064,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1078,7 +1072,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1086,7 +1080,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1094,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -233,124 +233,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>103</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,7 +776,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -784,7 +784,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -792,7 +792,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -800,7 +800,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -808,7 +808,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -816,7 +816,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -824,7 +824,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -832,7 +832,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -848,7 +848,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -856,7 +856,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -864,7 +864,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -872,7 +872,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -880,7 +880,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -888,7 +888,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -984,7 +984,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -992,7 +992,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -96,128 +96,131 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$1:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-0.95</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-0.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-0.85</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-0.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-0.7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-0.6499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-0.6</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-0.55</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>-0.45</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-0.3999999999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>-0.35</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-0.2999999999999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>-0.25</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>-0.2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>-0.1499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>-0.09999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>-0.04999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.05000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.1500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.3500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.4000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.4500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.55</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.6000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.6500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.7000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>0.8500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>0.9000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>0.9500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -233,124 +236,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>80</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>98</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -784,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -792,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -800,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -808,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -816,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -824,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -832,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -848,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -856,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -864,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -880,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -888,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -984,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -992,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1000,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1008,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1016,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1024,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1040,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1048,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1056,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1072,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1088,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -228,57 +228,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$41</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -311,49 +311,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>120</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +776,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +784,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +792,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +800,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +808,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +816,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +824,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +832,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +840,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +848,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +856,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +864,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +872,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +880,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +888,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -987,7 +984,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +992,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1000,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1008,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1016,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1043,7 +1040,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1048,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1056,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1064,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1072,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1080,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -228,57 +228,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:f>Sheet1!$B$1:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -311,46 +311,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>51</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>84</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>118</c:v>
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -784,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -800,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -808,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -816,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -824,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -832,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -840,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -856,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -864,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -872,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -880,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -888,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -984,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -992,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1000,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1008,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1016,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1024,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1040,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1048,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1056,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1064,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1072,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1080,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1088,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -236,124 +236,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>101</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>120</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -236,124 +236,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>61</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>145</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>189</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -236,124 +236,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -236,124 +236,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>12</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -251,109 +251,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>97</c:v>
+                  <c:v>936</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>694</c:v>
+                  <c:v>7025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>41</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>936</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>694</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -251,109 +251,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>192</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>471</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>936</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7025</c:v>
+                  <c:v>7074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>936</v>
+        <v>893</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>7025</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,7 +242,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -251,109 +251,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>99</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>224</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>460</c:v>
+                  <c:v>2258</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>893</c:v>
+                  <c:v>4773</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7074</c:v>
+                  <c:v>35047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>131</v>
+        <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>129</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>47</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>49</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>224</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>460</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>893</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>7074</v>
+        <v>35047</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,118 +242,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>311</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>327</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>498</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>681</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>733</c:v>
+                  <c:v>846</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>555</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>354</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>321</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>290</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>235</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>176</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>69</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>214</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>479</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1078</c:v>
+                  <c:v>1375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2258</c:v>
+                  <c:v>2870</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4773</c:v>
+                  <c:v>5435</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35047</c:v>
+                  <c:v>42213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>248</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>327</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>681</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>733</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>555</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>354</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>321</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>290</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>214</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>479</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>1078</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>2258</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>4773</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>35047</v>
+        <v>42213</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,118 +242,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>170</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>137</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>168</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>338</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>304</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>395</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>577</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>848</c:v>
+                  <c:v>1439</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>846</c:v>
+                  <c:v>1474</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>656</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>460</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>359</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>336</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>289</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>204</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>121</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>63</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>270</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>557</c:v>
+                  <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1375</c:v>
+                  <c:v>2161</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2870</c:v>
+                  <c:v>4657</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5435</c:v>
+                  <c:v>9228</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42213</c:v>
+                  <c:v>70261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>115</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>170</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>137</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>113</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>168</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>338</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>304</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>395</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>577</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>848</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>846</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>656</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>460</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>359</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>336</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>289</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>204</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>57</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>270</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>557</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>1375</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>2870</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>5435</v>
+        <v>9228</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>42213</v>
+        <v>70261</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -236,124 +236,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>294</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>206</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>176</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>196</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>539</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>543</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>660</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>961</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1076</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>725</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>603</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>522</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>374</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>151</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>423</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>874</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2161</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4657</c:v>
+                  <c:v>1146</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9228</c:v>
+                  <c:v>1399</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70261</c:v>
+                  <c:v>1605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>204</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>155</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>294</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>176</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>1439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>1474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>1076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>522</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>374</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>423</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>874</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>2161</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>4657</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>9228</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>70261</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -236,124 +236,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>824</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>576</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>243</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>218</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>199</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>271</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>151</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>58</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>138</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>255</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>78</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>360</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>227</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>298</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>412</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>586</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1146</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1399</c:v>
+                  <c:v>3972</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1605</c:v>
+                  <c:v>28322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +779,7 @@
         <v>-0.95</v>
       </c>
       <c r="B2">
-        <v>824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -787,7 +787,7 @@
         <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>2176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>1413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -803,7 +803,7 @@
         <v>-0.8</v>
       </c>
       <c r="B5">
-        <v>576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>167</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>208</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>450</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>218</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>199</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>118</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>271</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>255</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>360</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>298</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>586</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>1146</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>1399</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1605</v>
+        <v>28322</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -248,112 +248,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>509</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>492</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>424</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>270</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>242</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>246</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>222</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>147</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>195</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>411</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2069</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3972</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>28322</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>287</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>242</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>2069</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>3972</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>28322</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,118 +242,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1148</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2192</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2637</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3872</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>5790</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>6045</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>4763</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>3008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>2435</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1910</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1457</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1677</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>3440</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>9064</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>18880</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>37808</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30</c:v>
+                  <c:v>287194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>853</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>37808</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>287194</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,118 +242,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>305</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>719</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>808</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>570</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1080</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>817</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>680</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>275</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>353</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>696</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1148</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2042</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2192</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2637</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3872</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5790</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6045</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4763</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3008</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2435</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2280</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1910</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1457</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>853</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>358</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>88</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>166</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>496</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1677</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3440</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9064</c:v>
+                  <c:v>1005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18880</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37808</c:v>
+                  <c:v>3963</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>287194</c:v>
+                  <c:v>31328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>305</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>719</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>808</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>570</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>1080</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>817</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>680</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>275</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>353</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>696</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>1148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>2042</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>2192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>2637</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>3872</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>5790</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>6045</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>4763</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>3008</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>2435</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>2280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>1910</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>1457</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>853</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>358</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>496</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>1677</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>3440</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>9064</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>18880</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>37808</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>287194</v>
+        <v>31328</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,118 +242,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92</c:v>
+                  <c:v>788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96</c:v>
+                  <c:v>907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105</c:v>
+                  <c:v>1185</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>191</c:v>
+                  <c:v>2156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>179</c:v>
+                  <c:v>2229</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234</c:v>
+                  <c:v>2709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>370</c:v>
+                  <c:v>3921</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>555</c:v>
+                  <c:v>5754</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>581</c:v>
+                  <c:v>6032</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>519</c:v>
+                  <c:v>5097</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>349</c:v>
+                  <c:v>3388</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>285</c:v>
+                  <c:v>2863</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>223</c:v>
+                  <c:v>2604</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>181</c:v>
+                  <c:v>2243</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>159</c:v>
+                  <c:v>1675</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>109</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>219</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>405</c:v>
+                  <c:v>4144</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1005</c:v>
+                  <c:v>9826</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2075</c:v>
+                  <c:v>19953</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3963</c:v>
+                  <c:v>41185</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>31328</c:v>
+                  <c:v>309537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>191</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>179</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>234</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>370</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>555</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>581</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>519</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>349</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>285</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>223</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>181</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>159</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>43</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>219</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>405</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>1005</v>
+        <v>9826</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>2075</v>
+        <v>19953</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>3963</v>
+        <v>41185</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>31328</v>
+        <v>309537</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,118 +242,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>788</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>907</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>659</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1320</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1090</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>803</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>320</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>383</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>797</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1185</c:v>
+                  <c:v>1343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2156</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2229</c:v>
+                  <c:v>2386</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2709</c:v>
+                  <c:v>2944</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3921</c:v>
+                  <c:v>4054</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5754</c:v>
+                  <c:v>6060</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6032</c:v>
+                  <c:v>6170</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5097</c:v>
+                  <c:v>4825</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3388</c:v>
+                  <c:v>3132</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2863</c:v>
+                  <c:v>2587</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2604</c:v>
+                  <c:v>2510</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2243</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1675</c:v>
+                  <c:v>1655</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1025</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>437</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>120</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>98</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>195</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>599</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2067</c:v>
+                  <c:v>1889</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4144</c:v>
+                  <c:v>3875</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9826</c:v>
+                  <c:v>9796</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19953</c:v>
+                  <c:v>20787</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41185</c:v>
+                  <c:v>41907</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>309537</c:v>
+                  <c:v>308080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>788</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>907</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>659</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>1320</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>1090</v>
+        <v>972</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>803</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>797</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>1185</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>2156</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>2229</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>2709</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>3921</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>5754</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>6032</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>5097</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>3388</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>2863</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>2604</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>2243</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>1675</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>1025</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>437</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>599</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>2067</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>4144</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>9826</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>19953</v>
+        <v>20787</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>41185</v>
+        <v>41907</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>309537</v>
+        <v>308080</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -242,118 +242,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>845</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1240</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>972</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>737</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>354</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>414</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>870</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2386</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2944</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4054</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6060</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6170</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4825</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2587</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2510</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2230</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1655</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1067</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>473</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>561</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1889</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20787</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41907</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>308080</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +795,7 @@
         <v>-0.85</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -811,7 +811,7 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -819,7 +819,7 @@
         <v>-0.7</v>
       </c>
       <c r="B7">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>-0.6</v>
       </c>
       <c r="B9">
-        <v>1007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -843,7 +843,7 @@
         <v>-0.55</v>
       </c>
       <c r="B10">
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -851,7 +851,7 @@
         <v>-0.5</v>
       </c>
       <c r="B11">
-        <v>1240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -859,7 +859,7 @@
         <v>-0.45</v>
       </c>
       <c r="B12">
-        <v>972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -867,7 +867,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="B13">
-        <v>737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -875,7 +875,7 @@
         <v>-0.35</v>
       </c>
       <c r="B14">
-        <v>354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -883,7 +883,7 @@
         <v>-0.2999999999999999</v>
       </c>
       <c r="B15">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -891,7 +891,7 @@
         <v>-0.25</v>
       </c>
       <c r="B16">
-        <v>870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -899,7 +899,7 @@
         <v>-0.2</v>
       </c>
       <c r="B17">
-        <v>1343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -907,7 +907,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="B18">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>2386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>2944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>4054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>6060</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>6170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>4825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>3132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>2587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>2510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>2230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>1655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>1067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>1889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>3875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>9796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>20787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>41907</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>308080</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -254,41 +254,41 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
@@ -296,17 +296,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
@@ -317,11 +317,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
@@ -350,10 +350,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +827,7 @@
         <v>-0.6499999999999999</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -287,73 +287,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +915,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -302,19 +302,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -341,19 +341,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -296,64 +296,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -296,64 +296,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>77</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>52</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>56</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>52</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>51</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>53</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>52</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>52</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>77</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>51</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>51</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>49</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>52</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>56</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -296,64 +296,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>483</c:v>
+                  <c:v>48584</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>485</c:v>
+                  <c:v>49084</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>488</c:v>
+                  <c:v>49092</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>489</c:v>
+                  <c:v>49089</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>489</c:v>
+                  <c:v>49024</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>492</c:v>
+                  <c:v>49093</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>489</c:v>
+                  <c:v>49142</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>503</c:v>
+                  <c:v>49077</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>499</c:v>
+                  <c:v>49112</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>489</c:v>
+                  <c:v>49094</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>487</c:v>
+                  <c:v>49080</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>489</c:v>
+                  <c:v>49016</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>492</c:v>
+                  <c:v>49034</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>490</c:v>
+                  <c:v>49057</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>487</c:v>
+                  <c:v>49077</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>491</c:v>
+                  <c:v>49042</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>486</c:v>
+                  <c:v>49058</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>492</c:v>
+                  <c:v>49105</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>491</c:v>
+                  <c:v>48897</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>149</c:v>
+                  <c:v>14243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>483</v>
+        <v>48584</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>485</v>
+        <v>49084</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>488</v>
+        <v>49092</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>489</v>
+        <v>49089</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>489</v>
+        <v>49024</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>492</v>
+        <v>49093</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>489</v>
+        <v>49142</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>503</v>
+        <v>49077</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>499</v>
+        <v>49112</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>489</v>
+        <v>49094</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>487</v>
+        <v>49080</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>489</v>
+        <v>49016</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>492</v>
+        <v>49034</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>490</v>
+        <v>49057</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>487</v>
+        <v>49077</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>491</v>
+        <v>49042</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>486</v>
+        <v>49058</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>492</v>
+        <v>49105</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>491</v>
+        <v>48897</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>149</v>
+        <v>14243</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -296,64 +296,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48584</c:v>
+                  <c:v>485836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49084</c:v>
+                  <c:v>490454</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49092</c:v>
+                  <c:v>490612</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49089</c:v>
+                  <c:v>490577</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49024</c:v>
+                  <c:v>490203</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49093</c:v>
+                  <c:v>490909</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49142</c:v>
+                  <c:v>490498</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49077</c:v>
+                  <c:v>490288</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49112</c:v>
+                  <c:v>490798</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49094</c:v>
+                  <c:v>490225</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49080</c:v>
+                  <c:v>490495</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49016</c:v>
+                  <c:v>490452</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49034</c:v>
+                  <c:v>490637</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49057</c:v>
+                  <c:v>490720</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49077</c:v>
+                  <c:v>490299</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49042</c:v>
+                  <c:v>490506</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49058</c:v>
+                  <c:v>490308</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49105</c:v>
+                  <c:v>490574</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48897</c:v>
+                  <c:v>489307</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14243</c:v>
+                  <c:v>146302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>48584</v>
+        <v>485836</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>49084</v>
+        <v>490454</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>49092</v>
+        <v>490612</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>49089</v>
+        <v>490577</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>49024</v>
+        <v>490203</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>49093</v>
+        <v>490909</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>49142</v>
+        <v>490498</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>49077</v>
+        <v>490288</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>49112</v>
+        <v>490798</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>49094</v>
+        <v>490225</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>49080</v>
+        <v>490495</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>49016</v>
+        <v>490452</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>49034</v>
+        <v>490637</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>49057</v>
+        <v>490720</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>49077</v>
+        <v>490299</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>49042</v>
+        <v>490506</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>49058</v>
+        <v>490308</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>49105</v>
+        <v>490574</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>48897</v>
+        <v>489307</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>14243</v>
+        <v>146302</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -290,70 +290,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>85706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>485836</c:v>
+                  <c:v>231193</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>490454</c:v>
+                  <c:v>50153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>490612</c:v>
+                  <c:v>9670</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>490577</c:v>
+                  <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>490203</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>490909</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>490498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>490288</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>490798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>490225</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>490495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>490452</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>490637</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>490720</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>490299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>490506</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>490308</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>490574</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>489307</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>146302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>85706</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>485836</v>
+        <v>231193</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>490454</v>
+        <v>50153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>490612</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>490577</v>
+        <v>863</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>490203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>490909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>490498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>490288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>490798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>490225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>490495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>490452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>490637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>490720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>490299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>490506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>490308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>490574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>489307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>146302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PCC_Histogram" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -96,7 +96,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$41</c:f>
+              <c:f>PCC_Histogram!$A$1:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -228,7 +228,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$41</c:f>
+              <c:f>PCC_Histogram!$B$1:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -290,70 +290,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>245</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85706</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>231193</c:v>
+                  <c:v>48608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50153</c:v>
+                  <c:v>48990</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9670</c:v>
+                  <c:v>49116</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>863</c:v>
+                  <c:v>49041</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>170</c:v>
+                  <c:v>48965</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>49061</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>49087</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>49040</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>49063</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>49013</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>49023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>49114</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>49047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>49082</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>49013</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>49022</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>49073</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>49115</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>48951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>14576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +923,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B20">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>85706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -939,7 +939,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>231193</v>
+        <v>48608</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +947,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>50153</v>
+        <v>48990</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +955,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>9670</v>
+        <v>49116</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +963,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>863</v>
+        <v>49041</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +971,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>170</v>
+        <v>48965</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>49061</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +987,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>49087</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +995,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>49040</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>49063</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>49013</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>49023</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>49114</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>49047</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>49082</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>49013</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>49022</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>49073</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>49115</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>48951</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>14576</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -8,15 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="PCC_Histogram" sheetId="1" r:id="rId1"/>
+    <sheet name="Randomness_Check" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Total Iterations</t>
+  </si>
+  <si>
+    <t>Total Choices</t>
   </si>
 </sst>
 </file>
@@ -296,64 +300,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48608</c:v>
+                  <c:v>48481</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48990</c:v>
+                  <c:v>49000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49116</c:v>
+                  <c:v>49024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49041</c:v>
+                  <c:v>49025</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48965</c:v>
+                  <c:v>49036</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49061</c:v>
+                  <c:v>49104</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49087</c:v>
+                  <c:v>49075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49040</c:v>
+                  <c:v>49055</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49063</c:v>
+                  <c:v>49039</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49013</c:v>
+                  <c:v>49053</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49023</c:v>
+                  <c:v>49060</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49114</c:v>
+                  <c:v>49070</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49047</c:v>
+                  <c:v>49051</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49082</c:v>
+                  <c:v>49009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49013</c:v>
+                  <c:v>49037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49022</c:v>
+                  <c:v>48977</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49073</c:v>
+                  <c:v>49009</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49115</c:v>
+                  <c:v>49050</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48951</c:v>
+                  <c:v>48964</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14576</c:v>
+                  <c:v>14881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,7 +444,168 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Randomness Check</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Randomness_Check!$A$1:$A$total_genes_a</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Randomness_Check1!$B$1:$B$total_genes_a</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gene Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -939,7 +1104,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>48608</v>
+        <v>48481</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -947,7 +1112,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>48990</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -955,7 +1120,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>49116</v>
+        <v>49024</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -963,7 +1128,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>49041</v>
+        <v>49025</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -971,7 +1136,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>48965</v>
+        <v>49036</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -979,7 +1144,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>49061</v>
+        <v>49104</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -987,7 +1152,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>49087</v>
+        <v>49075</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -995,7 +1160,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>49040</v>
+        <v>49055</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1003,7 +1168,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>49063</v>
+        <v>49039</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1011,7 +1176,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>49013</v>
+        <v>49053</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1019,7 +1184,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>49023</v>
+        <v>49060</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1027,7 +1192,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>49114</v>
+        <v>49070</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1035,7 +1200,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>49047</v>
+        <v>49051</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1043,7 +1208,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>49082</v>
+        <v>49009</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1051,7 +1216,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>49013</v>
+        <v>49037</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1059,7 +1224,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>49022</v>
+        <v>48977</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1067,7 +1232,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>49073</v>
+        <v>49009</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1075,7 +1240,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>49115</v>
+        <v>49050</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1083,7 +1248,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>48951</v>
+        <v>48964</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1091,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>14576</v>
+        <v>14881</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1101,6 +1266,1496 @@
       <c r="B42">
         <f>SUM(B1:B41)</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B268"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>210</v>
+      </c>
+      <c r="B2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>230</v>
+      </c>
+      <c r="B4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>254</v>
+      </c>
+      <c r="B7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>199</v>
+      </c>
+      <c r="B8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>169</v>
+      </c>
+      <c r="B14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>261</v>
+      </c>
+      <c r="B15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>194</v>
+      </c>
+      <c r="B18">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>133</v>
+      </c>
+      <c r="B20">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>263</v>
+      </c>
+      <c r="B22">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>112</v>
+      </c>
+      <c r="B24">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>241</v>
+      </c>
+      <c r="B27">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>224</v>
+      </c>
+      <c r="B28">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>102</v>
+      </c>
+      <c r="B30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>229</v>
+      </c>
+      <c r="B32">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>184</v>
+      </c>
+      <c r="B33">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>264</v>
+      </c>
+      <c r="B36">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>187</v>
+      </c>
+      <c r="B37">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>220</v>
+      </c>
+      <c r="B38">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>153</v>
+      </c>
+      <c r="B39">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>175</v>
+      </c>
+      <c r="B40">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>155</v>
+      </c>
+      <c r="B41">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>204</v>
+      </c>
+      <c r="B42">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>101</v>
+      </c>
+      <c r="B44">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f>SUM(B1:B(total_genes_a)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Total Iterations</t>
-  </si>
-  <si>
-    <t>Total Choices</t>
   </si>
 </sst>
 </file>
@@ -300,64 +297,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49025</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49104</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49075</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49055</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49039</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49053</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49070</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49009</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48977</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49050</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14881</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1101,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>48481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1112,7 +1109,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>49000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1120,7 +1117,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>49024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1128,7 +1125,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>49025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1136,7 +1133,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>49036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1144,7 +1141,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>49104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1152,7 +1149,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B28">
-        <v>49075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1160,7 +1157,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>49055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1168,7 +1165,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="B30">
-        <v>49039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1176,7 +1173,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>49053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1184,7 +1181,7 @@
         <v>0.55</v>
       </c>
       <c r="B32">
-        <v>49060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1192,7 +1189,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>49070</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1200,7 +1197,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B34">
-        <v>49051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1208,7 +1205,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>49009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1216,7 +1213,7 @@
         <v>0.75</v>
       </c>
       <c r="B36">
-        <v>49037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1224,7 +1221,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>48977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1232,7 +1229,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B38">
-        <v>49009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1240,7 +1237,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>49050</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1248,7 +1245,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>48964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1256,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>14881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1284,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1292,1470 +1289,1349 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B3">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B5">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>111</v>
-      </c>
       <c r="B6">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>254</v>
-      </c>
       <c r="B7">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>199</v>
-      </c>
       <c r="B8">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>53</v>
-      </c>
       <c r="B9">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2</v>
-      </c>
       <c r="B10">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>50</v>
-      </c>
       <c r="B11">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>49</v>
-      </c>
       <c r="B12">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>126</v>
-      </c>
       <c r="B13">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>169</v>
-      </c>
       <c r="B14">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>261</v>
-      </c>
       <c r="B15">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>97</v>
-      </c>
       <c r="B16">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
       <c r="B24">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>241</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
       <c r="B36">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
       <c r="B37">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
       <c r="B39">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45">
-        <f>SUM(B1:B(total_genes_a)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120">
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174">
-        <v>174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -300,61 +300,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1109,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -1611,7 +1611,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -1891,7 +1891,7 @@
     </row>
     <row r="120" spans="2:2">
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:2">
@@ -2161,12 +2161,12 @@
     </row>
     <row r="174" spans="2:2">
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:2">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="181" spans="2:2">
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="2:2">
@@ -2296,7 +2296,7 @@
     </row>
     <row r="201" spans="2:2">
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="2:2">
@@ -2376,7 +2376,7 @@
     </row>
     <row r="217" spans="2:2">
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="2:2">
@@ -2401,7 +2401,7 @@
     </row>
     <row r="222" spans="2:2">
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="2:2">
@@ -2586,7 +2586,7 @@
     </row>
     <row r="259" spans="2:2">
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="2:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -351,7 +351,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -1245,7 +1245,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -1521,7 +1521,7 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -1576,7 +1576,7 @@
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -1671,7 +1671,7 @@
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:2">
@@ -2166,7 +2166,7 @@
     </row>
     <row r="175" spans="2:2">
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="2:2">
@@ -2296,7 +2296,7 @@
     </row>
     <row r="201" spans="2:2">
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="2:2">
@@ -2376,7 +2376,7 @@
     </row>
     <row r="217" spans="2:2">
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="2:2">
@@ -2396,12 +2396,12 @@
     </row>
     <row r="221" spans="2:2">
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="2:2">
@@ -2586,7 +2586,7 @@
     </row>
     <row r="259" spans="2:2">
       <c r="B259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="2:2">

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -351,10 +351,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,7 +1245,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1289,1349 +1289,1466 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2">
+      <c r="A6">
+        <v>7</v>
+      </c>
       <c r="B6">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7">
+        <v>247</v>
+      </c>
       <c r="B7">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2">
+      <c r="A8">
+        <v>112</v>
+      </c>
       <c r="B8">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
+      <c r="A9">
+        <v>249</v>
+      </c>
       <c r="B9">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2">
+      <c r="A10">
+        <v>161</v>
+      </c>
       <c r="B10">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2">
+      <c r="A11">
+        <v>223</v>
+      </c>
       <c r="B11">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2">
+      <c r="A12">
+        <v>199</v>
+      </c>
       <c r="B12">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
+      <c r="A13">
+        <v>175</v>
+      </c>
       <c r="B13">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2">
+      <c r="A14">
+        <v>157</v>
+      </c>
       <c r="B14">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2">
+      <c r="A15">
+        <v>133</v>
+      </c>
       <c r="B15">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2">
+      <c r="A16">
+        <v>42</v>
+      </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>239</v>
+      </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>33</v>
+      </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>119</v>
+      </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>43</v>
+      </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>126</v>
+      </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>38</v>
+      </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>94</v>
+      </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>170</v>
+      </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>224</v>
+      </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>48</v>
+      </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>192</v>
+      </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>15</v>
+      </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>47</v>
+      </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>220</v>
+      </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>238</v>
+      </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>30</v>
+      </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>151</v>
+      </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>72</v>
+      </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>125</v>
+      </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>90</v>
+      </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>2</v>
+      </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>51</v>
+      </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>178</v>
+      </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>258</v>
+      </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>248</v>
+      </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>206</v>
+      </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>163</v>
+      </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>21</v>
+      </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="B48">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -294,25 +294,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -351,10 +351,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="B40">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1273,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B268"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1289,87 +1289,87 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="B2">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>182</v>
@@ -1377,50 +1377,50 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B15">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="B17">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B18">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1428,457 +1428,409 @@
         <v>119</v>
       </c>
       <c r="B19">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B22">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B23">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B24">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="B25">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="B26">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="B28">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29">
-        <v>47</v>
-      </c>
       <c r="B29">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30">
-        <v>220</v>
-      </c>
       <c r="B30">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31">
-        <v>238</v>
-      </c>
       <c r="B31">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32">
-        <v>30</v>
-      </c>
       <c r="B32">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>151</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>72</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>125</v>
-      </c>
-      <c r="B35">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>90</v>
-      </c>
-      <c r="B36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>2</v>
-      </c>
+    <row r="37" spans="2:2">
       <c r="B37">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>51</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
         <v>178</v>
       </c>
+    </row>
+    <row r="39" spans="2:2">
       <c r="B39">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>258</v>
-      </c>
+    <row r="40" spans="2:2">
       <c r="B40">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>248</v>
-      </c>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>206</v>
-      </c>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>163</v>
-      </c>
-      <c r="B43">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="2:2">
       <c r="B47">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90">
-        <v>180</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:2">
@@ -1888,307 +1840,307 @@
     </row>
     <row r="96" spans="2:2">
       <c r="B96">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137">
-        <v>142</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="2:2">
@@ -2198,557 +2150,77 @@
     </row>
     <row r="158" spans="2:2">
       <c r="B158">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212">
         <v>151</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2">
-      <c r="B260">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2">
-      <c r="B266">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2">
-      <c r="B268">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -294,25 +294,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>125</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>444</c:v>
+                  <c:v>4893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>295</c:v>
+                  <c:v>2778</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103</c:v>
+                  <c:v>856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>125</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B22">
-        <v>444</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>295</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>856</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>0.3</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1289,938 +1289,938 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>181</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B4">
-        <v>163</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>153</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>153</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>155</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="B8">
-        <v>166</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B9">
-        <v>150</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B10">
-        <v>144</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="B11">
-        <v>159</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B12">
-        <v>182</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B13">
-        <v>183</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>166</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>175</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B16">
-        <v>170</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>169</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B18">
-        <v>167</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>162</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B20">
-        <v>166</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="B21">
-        <v>133</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="B22">
-        <v>158</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>176</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>158</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>178</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>179</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B27">
-        <v>179</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B28">
-        <v>158</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29">
-        <v>161</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30">
-        <v>157</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31">
-        <v>156</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32">
-        <v>187</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>182</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>166</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>174</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>160</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>167</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>178</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>162</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>156</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>171</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>175</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>166</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>175</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>153</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>142</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>164</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>196</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>157</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>162</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>150</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>175</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>167</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>152</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>150</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>168</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>159</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>147</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>160</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>160</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>159</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>172</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>170</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>168</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>143</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>160</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>164</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>153</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>147</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>150</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>174</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>173</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>160</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>193</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>160</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>170</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>173</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>177</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>164</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>162</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>153</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>158</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>166</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84">
-        <v>170</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85">
-        <v>177</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86">
-        <v>180</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87">
-        <v>169</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88">
-        <v>165</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89">
-        <v>169</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90">
-        <v>143</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91">
-        <v>150</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92">
-        <v>165</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93">
-        <v>160</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94">
-        <v>174</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95">
-        <v>177</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96">
-        <v>158</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97">
-        <v>160</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98">
-        <v>166</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99">
-        <v>185</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100">
-        <v>155</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101">
-        <v>162</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102">
-        <v>140</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103">
-        <v>160</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104">
-        <v>162</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105">
-        <v>156</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106">
-        <v>162</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107">
-        <v>155</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108">
-        <v>171</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109">
-        <v>159</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110">
-        <v>150</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111">
-        <v>160</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112">
-        <v>186</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113">
-        <v>152</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114">
-        <v>162</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115">
-        <v>152</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116">
-        <v>155</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117">
-        <v>180</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118">
-        <v>177</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119">
-        <v>174</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120">
-        <v>155</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121">
-        <v>166</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122">
-        <v>148</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123">
-        <v>138</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124">
-        <v>173</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125">
-        <v>169</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126">
-        <v>169</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127">
-        <v>167</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128">
-        <v>163</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129">
-        <v>161</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130">
-        <v>168</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131">
-        <v>159</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132">
-        <v>151</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133">
-        <v>157</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134">
-        <v>170</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135">
-        <v>146</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136">
-        <v>178</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137">
-        <v>177</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138">
-        <v>161</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139">
-        <v>153</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140">
-        <v>163</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141">
-        <v>160</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142">
-        <v>157</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143">
-        <v>136</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144">
-        <v>173</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145">
-        <v>168</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146">
-        <v>180</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147">
-        <v>156</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148">
-        <v>154</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149">
-        <v>164</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150">
-        <v>149</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151">
-        <v>145</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152">
-        <v>166</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153">
-        <v>181</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154">
-        <v>166</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155">
-        <v>152</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156">
-        <v>180</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157">
-        <v>169</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158">
-        <v>157</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159">
-        <v>155</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160">
-        <v>164</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161">
-        <v>177</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162">
-        <v>171</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163">
-        <v>156</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164">
-        <v>157</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165">
-        <v>162</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166">
-        <v>156</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167">
-        <v>167</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168">
-        <v>160</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169">
-        <v>177</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170">
-        <v>175</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171">
-        <v>187</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172">
-        <v>151</v>
+        <v>1587</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -105,124 +105,124 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.955</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-0.95</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>-0.945</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.9399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.9350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.9299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.915</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.905</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>-0.895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.885</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.865</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.855</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-0.85</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>-0.845</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.835</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.825</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.8200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.8100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.8049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.6499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.3999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.2999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.09999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.04999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.05000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.3500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.4000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.6000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.6500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.7000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.8500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.9500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,25 +294,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1230</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4893</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2778</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>856</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -473,12 +473,40 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$total_genes_a</c:f>
+              <c:f>Randomness_Check!$A$1:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check1!$B$1:$B$total_genes_a</c:f>
+              <c:f>Randomness_Check1!$B$1:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="0"/>
@@ -922,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -938,7 +966,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>-0.95</v>
+        <v>-0.995</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -946,7 +974,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>-0.9</v>
+        <v>-0.99</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -954,7 +982,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>-0.85</v>
+        <v>-0.985</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -962,7 +990,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>-0.8</v>
+        <v>-0.98</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -970,7 +998,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>-0.75</v>
+        <v>-0.975</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -978,7 +1006,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>-0.7</v>
+        <v>-0.97</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -986,7 +1014,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>-0.6499999999999999</v>
+        <v>-0.965</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -994,7 +1022,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>-0.6</v>
+        <v>-0.96</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1002,7 +1030,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>-0.55</v>
+        <v>-0.955</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1010,7 +1038,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>-0.5</v>
+        <v>-0.95</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1018,7 +1046,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>-0.45</v>
+        <v>-0.945</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1026,7 +1054,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>-0.3999999999999999</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1034,7 +1062,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>-0.35</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1042,7 +1070,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>-0.2999999999999999</v>
+        <v>-0.9299999999999999</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1050,7 +1078,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>-0.25</v>
+        <v>-0.925</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1058,7 +1086,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>-0.2</v>
+        <v>-0.92</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1066,7 +1094,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>-0.1499999999999999</v>
+        <v>-0.915</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1074,7 +1102,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>-0.09999999999999998</v>
+        <v>-0.91</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1082,7 +1110,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>-0.04999999999999993</v>
+        <v>-0.905</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1090,63 +1118,63 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="B21">
-        <v>1230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.05000000000000004</v>
+        <v>-0.895</v>
       </c>
       <c r="B22">
-        <v>4893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1000000000000001</v>
+        <v>-0.89</v>
       </c>
       <c r="B23">
-        <v>2778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.1500000000000001</v>
+        <v>-0.885</v>
       </c>
       <c r="B24">
-        <v>856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.2000000000000002</v>
+        <v>-0.88</v>
       </c>
       <c r="B25">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.25</v>
+        <v>-0.875</v>
       </c>
       <c r="B26">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.3</v>
+        <v>-0.87</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.3500000000000001</v>
+        <v>-0.865</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1154,7 +1182,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.4000000000000001</v>
+        <v>-0.86</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1162,7 +1190,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.4500000000000002</v>
+        <v>-0.855</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1170,7 +1198,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.5</v>
+        <v>-0.85</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1178,7 +1206,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.55</v>
+        <v>-0.845</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1186,7 +1214,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.6000000000000001</v>
+        <v>-0.84</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1194,7 +1222,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.6500000000000001</v>
+        <v>-0.835</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1202,7 +1230,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.7000000000000002</v>
+        <v>-0.83</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1210,7 +1238,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.75</v>
+        <v>-0.825</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1218,7 +1246,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.8</v>
+        <v>-0.8200000000000001</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1226,7 +1254,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.8500000000000001</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1234,7 +1262,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.9000000000000001</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1242,7 +1270,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.9500000000000002</v>
+        <v>-0.8049999999999999</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1250,17 +1278,2897 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
+        <v>-0.8</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>-0.7949999999999999</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>-0.79</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>-0.785</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>-0.78</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>-0.775</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>-0.77</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>-0.765</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>-0.76</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>-0.755</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>-0.75</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>-0.745</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>-0.74</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>-0.735</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>-0.73</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>-0.725</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>-0.72</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>-0.715</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>-0.71</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>-0.7050000000000001</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>-0.7</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>-0.6950000000000001</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>-0.6850000000000001</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>-0.675</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>-0.665</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>-0.655</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>-0.6499999999999999</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>-0.645</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>-0.64</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>-0.635</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>-0.63</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>-0.625</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>-0.62</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>-0.615</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>-0.61</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>-0.605</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>-0.6</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>-0.595</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>-0.59</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>-0.585</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>-0.5800000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>-0.575</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>-0.5649999999999999</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>-0.5549999999999999</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>-0.55</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>-0.5449999999999999</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>-0.54</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>-0.5349999999999999</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>-0.53</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>-0.5249999999999999</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>-0.52</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>-0.515</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>-0.51</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>-0.505</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>-0.5</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>-0.495</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>-0.49</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>-0.485</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>-0.48</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>-0.475</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>-0.47</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>-0.465</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>-0.46</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>-0.455</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>-0.45</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>-0.445</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>-0.4399999999999999</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>-0.4349999999999999</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>-0.4299999999999999</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>-0.4249999999999999</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>-0.42</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>-0.415</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>-0.41</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>-0.405</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>-0.4</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>-0.395</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>-0.39</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>-0.385</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>-0.38</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>-0.375</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>-0.37</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>-0.365</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>-0.36</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>-0.355</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>-0.35</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>-0.345</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>-0.34</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>-0.335</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>-0.33</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>-0.325</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>-0.32</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>-0.3149999999999999</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>-0.3099999999999999</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>-0.3049999999999999</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>-0.295</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>-0.29</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>-0.285</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>-0.28</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>-0.275</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>-0.27</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>-0.265</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>-0.26</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>-0.255</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>-0.25</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>-0.245</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>-0.24</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>-0.235</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>-0.23</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>-0.225</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>-0.22</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>-0.215</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>-0.21</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>-0.205</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>-0.2</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>-0.195</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>-0.1849999999999999</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>-0.1799999999999999</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>-0.1749999999999999</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>-0.165</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>-0.16</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>-0.155</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>-0.15</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>-0.145</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>-0.14</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>-0.135</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>-0.13</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>-0.125</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>-0.12</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>-0.115</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>-0.11</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>-0.105</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>-0.09499999999999997</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>-0.08499999999999996</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>-0.07999999999999996</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>-0.07499999999999996</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>-0.06499999999999995</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>-0.05999999999999994</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>-0.05499999999999994</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>-0.04999999999999993</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>-0.04499999999999993</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>-0.03500000000000003</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>-0.01500000000000001</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>-0.005000000000000004</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>0.005000000000000115</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>0.01500000000000012</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>0.02499999999999991</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>0.03499999999999992</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>0.04499999999999993</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>0.05499999999999994</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>0.06499999999999995</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>0.07000000000000006</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>0.07499999999999996</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>0.08499999999999996</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>0.09000000000000008</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>0.09499999999999997</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>0.105</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>0.115</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>0.125</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>0.1300000000000001</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>0.135</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>0.1400000000000001</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>0.145</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>0.1500000000000001</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>0.155</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>0.165</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>0.175</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>0.1850000000000001</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>0.1950000000000001</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>0.2</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>0.2050000000000001</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>0.21</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>0.2150000000000001</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>0.22</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>0.2250000000000001</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>0.23</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>0.2350000000000001</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>0.24</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>0.2450000000000001</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>0.25</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>0.2550000000000001</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>0.26</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>0.2650000000000001</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>0.27</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>0.2750000000000001</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>0.28</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>0.29</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>0.2949999999999999</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>0.3</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>0.3049999999999999</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>0.3149999999999999</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>0.325</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>0.335</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>0.3400000000000001</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>0.345</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>0.355</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>0.365</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>0.375</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>0.3800000000000001</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>0.385</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>0.3900000000000001</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>0.395</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>0.405</v>
+      </c>
+      <c r="B282">
         <v>1</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>0.415</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>0.425</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>0.4299999999999999</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>0.4350000000000001</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>0.4450000000000001</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>0.45</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>0.4550000000000001</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>0.46</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>0.4650000000000001</v>
+      </c>
+      <c r="B294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>0.47</v>
+      </c>
+      <c r="B295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>0.4750000000000001</v>
+      </c>
+      <c r="B296">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>0.48</v>
+      </c>
+      <c r="B297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>0.4850000000000001</v>
+      </c>
+      <c r="B298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>0.49</v>
+      </c>
+      <c r="B299">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>0.4950000000000001</v>
+      </c>
+      <c r="B300">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>0.5</v>
+      </c>
+      <c r="B301">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>0.5050000000000001</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>0.51</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>0.5150000000000001</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>0.52</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>0.5250000000000001</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>0.53</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>0.5350000000000001</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>0.54</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>0.5449999999999999</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>0.55</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>0.575</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>0.585</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="B319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>0.595</v>
+      </c>
+      <c r="B320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>0.605</v>
+      </c>
+      <c r="B322">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="B323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>0.615</v>
+      </c>
+      <c r="B324">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="B325">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>0.625</v>
+      </c>
+      <c r="B326">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>0.6300000000000001</v>
+      </c>
+      <c r="B327">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>0.635</v>
+      </c>
+      <c r="B328">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="B329">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>0.645</v>
+      </c>
+      <c r="B330">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="B331">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>0.655</v>
+      </c>
+      <c r="B332">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>0.6600000000000001</v>
+      </c>
+      <c r="B333">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>0.665</v>
+      </c>
+      <c r="B334">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="B335">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>0.675</v>
+      </c>
+      <c r="B336">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="B337">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="B338">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B339">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>0.6950000000000001</v>
+      </c>
+      <c r="B340">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>0.7</v>
+      </c>
+      <c r="B341">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="B342">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>0.71</v>
+      </c>
+      <c r="B343">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>0.7150000000000001</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>0.72</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>0.73</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>0.74</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>0.7450000000000001</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>0.75</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>0.7550000000000001</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>0.76</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>0.7650000000000001</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>0.77</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>0.7750000000000001</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>0.78</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>0.7850000000000001</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>0.79</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>0.7949999999999999</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>0.8</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>0.8049999999999999</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>0.825</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>0.835</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>0.845</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>0.855</v>
+      </c>
+      <c r="B372">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="B373">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>0.865</v>
+      </c>
+      <c r="B374">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="B375">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>0.875</v>
+      </c>
+      <c r="B376">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="B377">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>0.885</v>
+      </c>
+      <c r="B378">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>0.8900000000000001</v>
+      </c>
+      <c r="B379">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>0.895</v>
+      </c>
+      <c r="B380">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="B381">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>0.905</v>
+      </c>
+      <c r="B382">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="B383">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>0.915</v>
+      </c>
+      <c r="B384">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="B385">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>0.925</v>
+      </c>
+      <c r="B386">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B387">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="B388">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B389">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="B390">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391">
+        <v>0.95</v>
+      </c>
+      <c r="B391">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392">
+        <v>0.9550000000000001</v>
+      </c>
+      <c r="B392">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393">
+        <v>0.96</v>
+      </c>
+      <c r="B393">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394">
+        <v>0.9650000000000001</v>
+      </c>
+      <c r="B394">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395">
+        <v>0.97</v>
+      </c>
+      <c r="B395">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="B396">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397">
+        <v>0.98</v>
+      </c>
+      <c r="B397">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398">
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="B398">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399">
+        <v>0.99</v>
+      </c>
+      <c r="B399">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400">
+        <v>0.9950000000000001</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401">
+        <v>1</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>0</v>
+      </c>
+      <c r="B402">
         <f>SUM(B1:B41)</f>
         <v>0</v>
       </c>
@@ -1273,7 +4181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1281,7 +4189,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1289,938 +4197,433 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>1613</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>1703</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>1700</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>1614</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>1615</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>1650</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>1612</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>152</v>
-      </c>
       <c r="B9">
-        <v>1609</v>
+        <v>893</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>99</v>
-      </c>
       <c r="B10">
-        <v>1663</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>169</v>
-      </c>
       <c r="B11">
-        <v>1622</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>127</v>
-      </c>
       <c r="B12">
-        <v>1686</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>59</v>
-      </c>
       <c r="B13">
-        <v>1599</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>21</v>
-      </c>
       <c r="B14">
-        <v>1685</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>34</v>
-      </c>
       <c r="B15">
-        <v>1663</v>
+        <v>967</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>170</v>
-      </c>
       <c r="B16">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>44</v>
-      </c>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>111</v>
-      </c>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>17</v>
-      </c>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>91</v>
-      </c>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>165</v>
-      </c>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>47</v>
-      </c>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>42</v>
-      </c>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>15</v>
-      </c>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
       <c r="B24">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>23</v>
-      </c>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>9</v>
-      </c>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>123</v>
-      </c>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>142</v>
-      </c>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32">
-        <v>1651</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>1658</v>
+        <v>976</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>1645</v>
+        <v>950</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1621</v>
+        <v>935</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>1638</v>
+        <v>975</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>1651</v>
+        <v>979</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>1629</v>
+        <v>993</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>1637</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>1606</v>
+        <v>947</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>1637</v>
+        <v>987</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>1610</v>
+        <v>969</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>1629</v>
+        <v>990</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>1665</v>
+        <v>991</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>1655</v>
+        <v>982</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>1613</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>1617</v>
+        <v>966</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>1685</v>
+        <v>976</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>1612</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1673</v>
+        <v>957</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1703</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>1705</v>
+        <v>947</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1640</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1623</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1690</v>
+        <v>942</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>1694</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>1630</v>
+        <v>975</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>1650</v>
+        <v>975</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>1646</v>
+        <v>998</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>1620</v>
+        <v>938</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>1664</v>
+        <v>989</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>1663</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1731</v>
+        <v>986</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1629</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1662</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>1608</v>
+        <v>987</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>1641</v>
+        <v>959</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1679</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>1617</v>
+        <v>962</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1639</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>1613</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>1653</v>
+        <v>910</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1618</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>1639</v>
+        <v>989</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>1596</v>
+        <v>998</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>1606</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>1661</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>1596</v>
+        <v>952</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>1627</v>
+        <v>968</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1676</v>
+        <v>995</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>1703</v>
+        <v>949</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>1665</v>
+        <v>982</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172">
-        <v>1587</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -96,11 +96,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>PCC_Histogram!$A$1:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+            <c:strRef>
+              <c:f>PCC_Histogram!$A$1:$A$1000</c:f>
+              <c:strCache>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -224,15 +223,1098 @@
                 <c:pt idx="40">
                   <c:v>-0.8</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="41">
+                  <c:v>-0.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.785</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.775</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.765</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.755</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.745</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.735</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.725</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.715</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.7050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.6950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.6899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.6850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.6799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.675</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.6699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.665</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.6599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.655</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.6499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.645</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.635</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.625</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.615</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.605</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.595</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.585</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.5800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.575</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.5700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.5600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.5549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.515</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.505</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.485</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.475</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.465</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.455</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.445</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.4399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.4349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.4299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.4249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.415</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.405</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.395</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.385</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.365</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.355</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.345</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.335</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.325</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.3099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.2999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.295</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.29</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.285</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.28</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.275</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.265</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.255</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.245</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.235</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.225</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.205</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.195</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.1899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.1849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.1799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.1749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.1699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.165</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.155</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.145</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.14</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.135</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.115</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.105</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.09999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.09499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.08999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.08499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.07999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.07499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.06999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.06499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.05999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.05499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.04999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.04499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.04000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.03500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.03000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.02500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.02000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.01500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.01000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.005000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.005000000000000115</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.01000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.01500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.02000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.02499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.03000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.03499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.04000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.04499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.05000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.05499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.06000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.06499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.07000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.07499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.08000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.08499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.09000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.09499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.1300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.145</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.165</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.1699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.1799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.1899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.1950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.2150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.2350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.2550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.2650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.2750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.2849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.3100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.3200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.325</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.3300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.335</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.3400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.345</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.3500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.355</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.3600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.365</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.3700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.3800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.385</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.3900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.395</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.405</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.4099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.415</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.4199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.425</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.4299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.4399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.4450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.4650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.4850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.5050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.5150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.5250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.5350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.5549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.5600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.5700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.5800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.585</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.5900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.595</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.6000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.605</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.6100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.615</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.6200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.6300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.635</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.6400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.645</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.6500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.655</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.6600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.6699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.675</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.6799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.6850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.6899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.6950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.7050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.7150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.7350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.7550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.7750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.8049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.8100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.8200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.8300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.835</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.8400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.845</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.8500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.855</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.8600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.865</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.8700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.8800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.885</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.8900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.895</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.905</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.9100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.915</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.9199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.9299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.9350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.9399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.9450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.9650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.9850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>Total Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PCC_Histogram!$B$1:$B$41</c:f>
+              <c:f>PCC_Histogram!$B$1:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -354,6 +1436,1089 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -387,7 +2552,6 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -478,28 +2642,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +5381,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3233,7 +5397,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3241,7 +5405,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3249,7 +5413,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3257,7 +5421,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3273,7 +5437,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3281,7 +5445,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3289,7 +5453,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3297,7 +5461,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3305,7 +5469,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3313,7 +5477,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3321,7 +5485,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3329,7 +5493,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3337,7 +5501,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3345,7 +5509,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3353,7 +5517,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3369,7 +5533,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3377,7 +5541,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3393,7 +5557,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3401,7 +5565,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3409,7 +5573,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3473,7 +5637,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3481,7 +5645,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3489,7 +5653,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3497,7 +5661,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3505,7 +5669,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3513,7 +5677,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3529,7 +5693,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3537,7 +5701,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3545,7 +5709,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3553,7 +5717,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3569,7 +5733,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3577,7 +5741,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3585,7 +5749,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3593,7 +5757,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3601,7 +5765,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3609,7 +5773,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3617,7 +5781,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3625,7 +5789,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3633,7 +5797,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3641,7 +5805,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3649,7 +5813,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3657,7 +5821,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3665,7 +5829,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3673,7 +5837,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3681,7 +5845,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3689,7 +5853,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3697,7 +5861,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3705,7 +5869,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3713,7 +5877,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3721,7 +5885,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3889,7 +6053,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3897,7 +6061,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3913,7 +6077,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3921,7 +6085,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3929,7 +6093,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3937,7 +6101,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3945,7 +6109,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3953,7 +6117,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3961,7 +6125,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3969,7 +6133,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3977,7 +6141,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3985,7 +6149,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3993,7 +6157,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4001,7 +6165,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4009,7 +6173,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4017,7 +6181,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4025,7 +6189,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4033,7 +6197,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4041,7 +6205,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4049,7 +6213,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4057,7 +6221,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4065,7 +6229,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4073,7 +6237,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4081,7 +6245,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4089,7 +6253,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4097,7 +6261,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>825</v>
+        <v>862</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4105,7 +6269,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4113,7 +6277,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>1049</v>
+        <v>977</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4121,7 +6285,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4129,7 +6293,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>577</v>
+        <v>628</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4137,7 +6301,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>274</v>
+        <v>220</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4145,7 +6309,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4153,7 +6317,7 @@
         <v>0.9950000000000001</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4189,7 +6353,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4197,163 +6361,163 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B2">
-        <v>960</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>943</v>
+        <v>928</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>990</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>965</v>
+        <v>956</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>1008</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
-        <v>893</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>920</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>961</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>967</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>937</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>978</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>983</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>929</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>913</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>990</v>
+        <v>933</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>917</v>
+        <v>959</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1008</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>994</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>935</v>
+        <v>957</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1002</v>
+        <v>968</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>965</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -4363,7 +6527,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1039</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -4373,97 +6537,97 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>976</v>
+        <v>994</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>950</v>
+        <v>995</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>935</v>
+        <v>988</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>975</v>
+        <v>930</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>979</v>
+        <v>954</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>993</v>
+        <v>954</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>1014</v>
+        <v>935</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>947</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>991</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>982</v>
+        <v>997</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>1015</v>
+        <v>947</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>966</v>
+        <v>953</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>976</v>
+        <v>960</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>942</v>
+        <v>995</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>957</v>
+        <v>942</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1016</v>
+        <v>977</v>
       </c>
     </row>
     <row r="52" spans="2:2">
@@ -4473,157 +6637,157 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>926</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>942</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>1001</v>
+        <v>981</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>975</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>975</v>
+        <v>935</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>998</v>
+        <v>983</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>938</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>989</v>
+        <v>938</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>1024</v>
+        <v>960</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>986</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1007</v>
+        <v>990</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1001</v>
+        <v>939</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>987</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>962</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1020</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>965</v>
+        <v>979</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>910</v>
+        <v>956</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1014</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>989</v>
+        <v>972</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>1019</v>
+        <v>999</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>1010</v>
+        <v>997</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>952</v>
+        <v>994</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>968</v>
+        <v>951</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>995</v>
+        <v>969</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>949</v>
+        <v>967</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>982</v>
+        <v>957</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>989</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -2159,361 +2159,361 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="282">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="283">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="287">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="288">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="290">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="292">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="293">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="293">
+                <c:pt idx="294">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="302">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="294">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="303">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="305">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="317">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="325">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="326">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="326">
+                <c:pt idx="327">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="330">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="327">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="328">
+                <c:pt idx="331">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="374">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="329">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="375">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="398">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="376">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>659</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>862</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>918</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="399">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>0</c:v>
@@ -2642,25 +2642,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>73</c:v>
@@ -2670,10 +2670,259 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check1!$B$1:$B$1000</c:f>
+              <c:f>Randomness_Check!$B$1:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>957</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5373,7 +5622,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5381,7 +5630,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5389,7 +5638,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5405,7 +5654,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5413,7 +5662,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5421,7 +5670,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5437,7 +5686,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5445,7 +5694,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5461,7 +5710,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5469,7 +5718,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5477,7 +5726,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5485,7 +5734,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5493,7 +5742,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5501,7 +5750,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5509,7 +5758,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5517,7 +5766,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5525,7 +5774,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5533,7 +5782,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5541,7 +5790,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5549,7 +5798,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5557,7 +5806,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5565,7 +5814,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5645,7 +5894,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5653,7 +5902,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5661,7 +5910,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5677,7 +5926,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5685,7 +5934,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5701,7 +5950,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5709,7 +5958,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5717,7 +5966,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5725,7 +5974,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5733,7 +5982,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5741,7 +5990,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5749,7 +5998,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5757,7 +6006,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5765,7 +6014,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5773,7 +6022,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5781,7 +6030,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5789,7 +6038,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5797,7 +6046,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5805,7 +6054,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5813,7 +6062,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5821,7 +6070,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5829,7 +6078,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>207</v>
+        <v>244</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5837,7 +6086,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5845,7 +6094,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5853,7 +6102,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5861,7 +6110,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5869,7 +6118,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5877,7 +6126,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5885,7 +6134,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6053,7 +6302,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6061,7 +6310,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6069,7 +6318,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6077,7 +6326,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6085,7 +6334,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6093,7 +6342,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6101,7 +6350,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6109,7 +6358,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6117,7 +6366,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6125,7 +6374,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6133,7 +6382,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6141,7 +6390,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6149,7 +6398,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6157,7 +6406,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6165,7 +6414,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6173,7 +6422,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6181,7 +6430,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6189,7 +6438,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6197,7 +6446,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6205,7 +6454,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6213,7 +6462,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6221,7 +6470,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6229,7 +6478,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>313</v>
+        <v>358</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6237,7 +6486,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6245,7 +6494,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6253,7 +6502,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>659</v>
+        <v>696</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6261,7 +6510,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>862</v>
+        <v>817</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6269,7 +6518,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>983</v>
+        <v>929</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6277,7 +6526,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>977</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6285,7 +6534,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>918</v>
+        <v>944</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6293,7 +6542,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>628</v>
+        <v>609</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6301,7 +6550,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6309,7 +6558,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6317,7 +6566,7 @@
         <v>0.9950000000000001</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6333,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="B402">
-        <f>SUM(B1:B41)</f>
+        <f>SUM(B1:B1000)</f>
         <v>0</v>
       </c>
     </row>
@@ -6353,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6361,50 +6610,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1010</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>984</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B5">
-        <v>952</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>1021</v>
+        <v>944</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>956</v>
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6412,102 +6661,102 @@
         <v>73</v>
       </c>
       <c r="B8">
-        <v>914</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>1004</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>961</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>940</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>1001</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>1013</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>1018</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>948</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1013</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>941</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>959</v>
+        <v>977</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>911</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>953</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>889</v>
+        <v>987</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>957</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="2:2">
@@ -6517,277 +6766,277 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>1020</v>
+        <v>966</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1001</v>
+        <v>939</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>994</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>995</v>
+        <v>977</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>988</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>930</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>954</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>954</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>935</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>971</v>
+        <v>934</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>968</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>987</v>
+        <v>954</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>1014</v>
+        <v>993</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>997</v>
+        <v>963</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>947</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>953</v>
+        <v>978</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>960</v>
+        <v>986</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>995</v>
+        <v>948</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>942</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>977</v>
+        <v>924</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>947</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1028</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>949</v>
+        <v>997</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1004</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>1031</v>
+        <v>953</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>935</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>983</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>1040</v>
+        <v>959</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>938</v>
+        <v>962</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>960</v>
+        <v>982</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1012</v>
+        <v>987</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>990</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>939</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>1008</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1002</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>1031</v>
+        <v>939</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>987</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>956</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1035</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>972</v>
+        <v>987</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>995</v>
+        <v>912</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>999</v>
+        <v>968</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>997</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>994</v>
+        <v>932</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>969</v>
+        <v>931</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>967</v>
+        <v>922</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>957</v>
+        <v>997</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>1002</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -96,10 +96,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>PCC_Histogram!$A$1:$A$1000</c:f>
-              <c:strCache>
-                <c:ptCount val="1000"/>
+            <c:numRef>
+              <c:f>PCC_Histogram!$A$1:$A$401</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -1303,18 +1304,15 @@
                 <c:pt idx="400">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="401">
-                  <c:v>Total Iterations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PCC_Histogram!$B$1:$B$1000</c:f>
+              <c:f>PCC_Histogram!$B$1:$B$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="401"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2156,80 +2154,80 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="294">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="300">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="302">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="304">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="303">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="305">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2258,267 +2256,264 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>23</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="324">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="325">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="325">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="326">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>29</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>85</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>99</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>138</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>177</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>209</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>244</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>193</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>125</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="342">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="375">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="343">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="344">
+                <c:pt idx="376">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="399">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="345">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>443</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="400">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="401">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2552,6 +2547,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -2637,291 +2633,291 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$1000</c:f>
+              <c:f>Randomness_Check!$A$1:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$1000</c:f>
+              <c:f>Randomness_Check!$B$1:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>927</c:v>
+                  <c:v>955</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>921</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="55">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>977</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="67">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>969</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>931</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="69">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>970</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>928</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>937</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="75">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>981</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>934</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="79">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>948</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>924</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>912</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>931</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,7 +5610,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5630,7 +5626,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5638,7 +5634,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5654,7 +5650,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5670,7 +5666,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5686,7 +5682,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5702,7 +5698,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5710,7 +5706,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5726,7 +5722,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5734,7 +5730,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5742,7 +5738,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5750,7 +5746,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5758,7 +5754,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5766,7 +5762,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5774,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5790,7 +5786,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5798,7 +5794,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5806,7 +5802,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5886,7 +5882,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5894,7 +5890,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5910,7 +5906,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5926,7 +5922,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5942,7 +5938,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5950,7 +5946,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5958,7 +5954,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5966,7 +5962,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5974,7 +5970,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5982,7 +5978,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5990,7 +5986,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5998,7 +5994,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6006,7 +6002,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6014,7 +6010,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6022,7 +6018,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6038,7 +6034,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6046,7 +6042,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6054,7 +6050,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6062,7 +6058,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6070,7 +6066,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6078,7 +6074,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6086,7 +6082,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6094,7 +6090,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6102,7 +6098,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6110,7 +6106,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6118,7 +6114,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6126,7 +6122,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6134,7 +6130,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6310,7 +6306,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6318,7 +6314,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6326,7 +6322,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6334,7 +6330,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6342,7 +6338,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6350,7 +6346,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6358,7 +6354,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6366,7 +6362,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6374,7 +6370,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6382,7 +6378,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6390,7 +6386,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6398,7 +6394,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6406,7 +6402,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6414,7 +6410,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6422,7 +6418,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6430,7 +6426,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6438,7 +6434,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6446,7 +6442,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6454,7 +6450,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6462,7 +6458,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6470,7 +6466,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6478,7 +6474,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6486,7 +6482,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6494,7 +6490,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6502,7 +6498,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>696</v>
+        <v>637</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6510,7 +6506,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6518,7 +6514,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>929</v>
+        <v>939</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6526,7 +6522,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>1008</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6534,7 +6530,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>944</v>
+        <v>913</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6542,7 +6538,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6550,7 +6546,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6558,7 +6554,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6566,7 +6562,7 @@
         <v>0.9950000000000001</v>
       </c>
       <c r="B400">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6602,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6610,433 +6606,433 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>927</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>921</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>958</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>944</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>954</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
-        <v>969</v>
+        <v>953</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>936</v>
+        <v>974</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>978</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>986</v>
+        <v>961</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>1019</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>952</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>1000</v>
+        <v>968</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1001</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>1003</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>970</v>
+        <v>979</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>928</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>937</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>984</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>987</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>1002</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>966</v>
+        <v>957</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>939</v>
+        <v>976</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>989</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>977</v>
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>970</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>981</v>
+        <v>991</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>971</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>934</v>
+        <v>974</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>994</v>
+        <v>929</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>1003</v>
+        <v>948</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>954</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>963</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>978</v>
+        <v>935</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>948</v>
+        <v>970</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1042</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>924</v>
+        <v>951</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>1021</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1006</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>997</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>965</v>
+        <v>921</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>983</v>
+        <v>951</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>953</v>
+        <v>970</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>1059</v>
+        <v>937</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>1033</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>959</v>
+        <v>988</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>962</v>
+        <v>988</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>982</v>
+        <v>969</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>960</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>999</v>
+        <v>939</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>1043</v>
+        <v>982</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>967</v>
+        <v>977</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>939</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1012</v>
+        <v>968</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1005</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>987</v>
+        <v>939</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>912</v>
+        <v>970</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>968</v>
+        <v>930</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>1011</v>
+        <v>967</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>932</v>
+        <v>962</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>946</v>
+        <v>981</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>931</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>922</v>
+        <v>995</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>997</v>
+        <v>964</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>957</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -2154,13 +2154,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>0</c:v>
@@ -2169,71 +2169,71 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="290">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="291">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="307">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2253,10 +2253,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>1</c:v>
@@ -2265,250 +2265,250 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="317">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="319">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="318">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="320">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>31</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="326">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="327">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="327">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="328">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>54</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>68</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>82</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>107</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>146</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>191</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>216</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>227</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>183</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>115</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="341">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="344">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="369">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="345">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="367">
+                <c:pt idx="370">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="368">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="370">
+                <c:pt idx="371">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="371">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="372">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>39</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>61</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>96</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>100</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>118</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>112</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>109</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>95</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="384">
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>152</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>185</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>259</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>346</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>428</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>529</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>637</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>814</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>939</c:v>
+                  <c:v>955</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1051</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>913</c:v>
+                  <c:v>935</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>601</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="399">
                   <c:v>1</c:v>
@@ -2638,28 +2638,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="83"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,250 +2674,250 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>955</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>990</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>994</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="37">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>983</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>937</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>938</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="47">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>979</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="49">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1007</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="51">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>949</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="61">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>973</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>948</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>935</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1054</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="63">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>937</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>982</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1007</c:v>
+                  <c:v>944</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>969</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>968</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>990</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1010</c:v>
+                  <c:v>982</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1026</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>939</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>970</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>967</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>962</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>981</c:v>
+                  <c:v>958</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>967</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>995</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>964</c:v>
+                  <c:v>1004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>963</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,7 +5610,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5706,7 +5706,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5738,7 +5738,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5746,7 +5746,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5794,7 +5794,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5802,7 +5802,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5906,7 +5906,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5914,7 +5914,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5922,7 +5922,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5930,7 +5930,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5938,7 +5938,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5946,7 +5946,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5954,7 +5954,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5962,7 +5962,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5970,7 +5970,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5978,7 +5978,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5986,7 +5986,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5994,7 +5994,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6010,7 +6010,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6026,7 +6026,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6042,7 +6042,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6050,7 +6050,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6058,7 +6058,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6066,7 +6066,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6074,7 +6074,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6082,7 +6082,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6090,7 +6090,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6106,7 +6106,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6114,7 +6114,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6122,7 +6122,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6130,7 +6130,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6298,7 +6298,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6306,7 +6306,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6314,7 +6314,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6322,7 +6322,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6330,7 +6330,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6338,7 +6338,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6346,7 +6346,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6354,7 +6354,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6362,7 +6362,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6370,7 +6370,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6378,7 +6378,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6386,7 +6386,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6394,7 +6394,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6402,7 +6402,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6410,7 +6410,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6418,7 +6418,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6426,7 +6426,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6434,7 +6434,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6450,7 +6450,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6458,7 +6458,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6466,7 +6466,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6474,7 +6474,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6482,7 +6482,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6490,7 +6490,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6498,7 +6498,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>637</v>
+        <v>666</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6506,7 +6506,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6514,7 +6514,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>939</v>
+        <v>955</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6522,7 +6522,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>1051</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6530,7 +6530,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>913</v>
+        <v>935</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6538,7 +6538,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6554,7 +6554,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6598,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6606,15 +6606,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>955</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>988</v>
@@ -6622,332 +6622,332 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>983</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>922</v>
+        <v>974</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
-        <v>953</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>1029</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>961</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>976</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>988</v>
+        <v>952</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>937</v>
+        <v>910</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>1015</v>
+        <v>941</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>968</v>
+        <v>943</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>938</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>984</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1013</v>
+        <v>957</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>1007</v>
+        <v>977</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>966</v>
+        <v>942</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>940</v>
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>963</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>957</v>
+        <v>997</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>949</v>
+        <v>934</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>976</v>
+        <v>959</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>1023</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>968</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>925</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>991</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>974</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>973</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>940</v>
+        <v>959</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>929</v>
+        <v>991</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>948</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>1003</v>
+        <v>959</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>1003</v>
+        <v>917</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>995</v>
+        <v>977</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>935</v>
+        <v>983</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>970</v>
+        <v>979</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1054</v>
+        <v>979</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>951</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>959</v>
+        <v>999</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>985</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>921</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>951</v>
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>970</v>
+        <v>952</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>937</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>988</v>
+        <v>948</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>988</v>
+        <v>949</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>969</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>994</v>
+        <v>973</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1000</v>
+        <v>969</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>939</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="67" spans="2:2">
@@ -6957,82 +6957,82 @@
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1007</v>
+        <v>944</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>969</v>
+        <v>947</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>968</v>
+        <v>933</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>1010</v>
+        <v>982</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1026</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>970</v>
+        <v>984</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>930</v>
+        <v>977</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>962</v>
+        <v>981</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>981</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>967</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>995</v>
+        <v>933</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>964</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Total Iterations</t>
+  </si>
+  <si>
+    <t>Total Choices</t>
   </si>
 </sst>
 </file>
@@ -2157,58 +2160,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="286">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="289">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="287">
+                <c:pt idx="290">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="288">
+                <c:pt idx="291">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>8</c:v>
@@ -2217,16 +2220,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>0</c:v>
@@ -2250,13 +2253,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>1</c:v>
@@ -2265,85 +2268,85 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="330">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="342">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="331">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="343">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="344">
                   <c:v>2</c:v>
@@ -2415,103 +2418,103 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="369">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="370">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="370">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="371">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>27</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>54</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>69</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="378">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="380">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="379">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>98</c:v>
-                </c:pt>
                 <c:pt idx="381">
-                  <c:v>133</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>116</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="383">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>103</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>122</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>197</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>258</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>328</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>437</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>528</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>666</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>812</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>955</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1012</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>935</c:v>
+                  <c:v>916</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>585</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>260</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>0</c:v>
@@ -2632,37 +2635,39 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Randomness_Check!$A$1:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="83"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Total Choices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2674,250 +2679,250 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>988</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>986</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>990</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1009</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1033</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>974</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>940</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>990</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>925</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>992</c:v>
+                  <c:v>958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1014</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>952</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>910</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>941</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>943</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>969</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>975</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>940</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>972</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>964</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>985</c:v>
+                  <c:v>963</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>957</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>977</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>942</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>974</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1018</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>997</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>934</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>959</c:v>
+                  <c:v>1004</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>984</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>918</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>967</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1017</c:v>
+                  <c:v>1016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>980</c:v>
+                  <c:v>1011</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>994</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1038</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>990</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>991</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>917</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="63">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>969</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="69">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>952</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="74">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>993</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>948</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>947</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1004</c:v>
-                </c:pt>
                 <c:pt idx="82">
-                  <c:v>942</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,7 +2955,6 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
@@ -5618,7 +5622,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5626,7 +5630,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5634,7 +5638,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5650,7 +5654,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5658,7 +5662,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5666,7 +5670,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5674,7 +5678,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5682,7 +5686,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5690,7 +5694,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5698,7 +5702,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5714,7 +5718,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5722,7 +5726,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5730,7 +5734,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5738,7 +5742,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5746,7 +5750,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5754,7 +5758,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5778,7 +5782,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5794,7 +5798,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5802,7 +5806,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5866,7 +5870,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5874,7 +5878,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5882,7 +5886,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5906,7 +5910,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5914,7 +5918,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5922,7 +5926,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5930,7 +5934,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5938,7 +5942,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5946,7 +5950,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5954,7 +5958,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5962,7 +5966,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5970,7 +5974,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5978,7 +5982,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5986,7 +5990,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5994,7 +5998,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6002,7 +6006,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6010,7 +6014,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6018,7 +6022,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6026,7 +6030,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6034,7 +6038,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6042,7 +6046,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6050,7 +6054,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6058,7 +6062,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6066,7 +6070,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6074,7 +6078,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6082,7 +6086,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6090,7 +6094,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6098,7 +6102,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6106,7 +6110,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6114,7 +6118,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6306,7 +6310,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6314,7 +6318,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6322,7 +6326,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6330,7 +6334,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6338,7 +6342,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6346,7 +6350,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6354,7 +6358,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6362,7 +6366,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6370,7 +6374,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6378,7 +6382,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6386,7 +6390,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6394,7 +6398,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6402,7 +6406,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6410,7 +6414,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6418,7 +6422,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6426,7 +6430,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6442,7 +6446,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6450,7 +6454,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6458,7 +6462,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6466,7 +6470,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6474,7 +6478,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6482,7 +6486,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6490,7 +6494,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>528</v>
+        <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6498,7 +6502,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>666</v>
+        <v>703</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6506,7 +6510,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>812</v>
+        <v>844</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6514,7 +6518,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>955</v>
+        <v>977</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6522,7 +6526,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>1012</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6530,7 +6534,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>935</v>
+        <v>916</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6538,7 +6542,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>585</v>
+        <v>599</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6546,7 +6550,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6554,7 +6558,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6562,7 +6566,7 @@
         <v>0.9950000000000001</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6578,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="B402">
-        <f>SUM(B1:B1000)</f>
+        <f>SUM(B1:B401)</f>
         <v>0</v>
       </c>
     </row>
@@ -6598,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6606,173 +6610,177 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>980</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>988</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1009</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>1033</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>974</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
       <c r="B9">
-        <v>940</v>
+        <f>SUM(B1:B83</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>990</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>925</v>
+        <v>956</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>992</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>1014</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>952</v>
+        <v>972</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>910</v>
+        <v>948</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>941</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>943</v>
+        <v>975</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>940</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>972</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>964</v>
+        <v>939</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>985</v>
+        <v>963</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>957</v>
+        <v>967</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>977</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>974</v>
+        <v>998</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1018</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>934</v>
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>959</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -6782,32 +6790,32 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>918</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>967</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>980</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>1038</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -6817,222 +6825,222 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>967</v>
+        <v>874</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>959</v>
+        <v>974</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>998</v>
+        <v>977</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>917</v>
+        <v>961</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>977</v>
+        <v>936</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>969</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>979</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>979</v>
+        <v>960</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1007</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1014</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1039</v>
+        <v>986</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1019</v>
+        <v>981</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>990</v>
+        <v>970</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>973</v>
+        <v>904</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>948</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>949</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>1000</v>
+        <v>972</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>973</v>
+        <v>991</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>969</v>
+        <v>916</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>987</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>985</v>
+        <v>956</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>944</v>
+        <v>953</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>947</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>933</v>
+        <v>982</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1033</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>932</v>
+        <v>952</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>984</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>981</v>
+        <v>958</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>958</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>933</v>
+        <v>997</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>942</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Total Iterations</t>
-  </si>
-  <si>
-    <t>Total Choices</t>
   </si>
 </sst>
 </file>
@@ -1884,637 +1881,637 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="281">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="399">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>703</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>916</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>0</c:v>
@@ -2635,39 +2632,37 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Randomness_Check!$A$1:$A$83</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="83"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Total Choices</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2679,250 +2674,250 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>996</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="57">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>976</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="73">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="75">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>920</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>956</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>948</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>874</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="78">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>961</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>904</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>916</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>956</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>993</c:v>
-                </c:pt>
                 <c:pt idx="82">
-                  <c:v>964</c:v>
+                  <c:v>938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,6 +2950,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
@@ -4886,7 +4882,7 @@
         <v>-0.05499999999999994</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4894,7 +4890,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4902,7 +4898,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4910,7 +4906,7 @@
         <v>-0.04000000000000004</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4918,7 +4914,7 @@
         <v>-0.03500000000000003</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4926,7 +4922,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4934,7 +4930,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4942,7 +4938,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4950,7 +4946,7 @@
         <v>-0.01500000000000001</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4958,7 +4954,7 @@
         <v>-0.01000000000000001</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4966,7 +4962,7 @@
         <v>-0.005000000000000004</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4974,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4982,7 +4978,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4990,7 +4986,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4998,7 +4994,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5006,7 +5002,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5014,7 +5010,7 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5022,7 +5018,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5030,7 +5026,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5038,7 +5034,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5046,7 +5042,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5054,7 +5050,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5062,7 +5058,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5070,7 +5066,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5078,7 +5074,7 @@
         <v>0.06499999999999995</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5086,7 +5082,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5094,7 +5090,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5102,7 +5098,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5110,7 +5106,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5118,7 +5114,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5126,7 +5122,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5134,7 +5130,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5142,7 +5138,7 @@
         <v>0.105</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5150,7 +5146,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5158,7 +5154,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5166,7 +5162,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5174,7 +5170,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5182,7 +5178,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5190,7 +5186,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5198,7 +5194,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5206,7 +5202,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5214,7 +5210,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5222,7 +5218,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5230,7 +5226,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5238,7 +5234,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5246,7 +5242,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5254,7 +5250,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5262,7 +5258,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5270,7 +5266,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5278,7 +5274,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5286,7 +5282,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5294,7 +5290,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5302,7 +5298,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5310,7 +5306,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5318,7 +5314,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5326,7 +5322,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5334,7 +5330,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5342,7 +5338,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5350,7 +5346,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5358,7 +5354,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5366,7 +5362,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5374,7 +5370,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5382,7 +5378,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5390,7 +5386,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5398,7 +5394,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5406,7 +5402,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5414,7 +5410,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5422,7 +5418,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5430,7 +5426,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5438,7 +5434,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5446,7 +5442,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5454,7 +5450,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5462,7 +5458,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5470,7 +5466,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5478,7 +5474,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5486,7 +5482,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5494,7 +5490,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5502,7 +5498,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5510,7 +5506,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5518,7 +5514,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5526,7 +5522,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5534,7 +5530,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5542,7 +5538,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5550,7 +5546,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5558,7 +5554,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5566,7 +5562,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5574,7 +5570,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5582,7 +5578,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5590,7 +5586,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5598,7 +5594,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5606,7 +5602,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5614,7 +5610,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5622,7 +5618,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5630,7 +5626,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5638,7 +5634,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5646,7 +5642,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5654,7 +5650,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5662,7 +5658,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5670,7 +5666,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5678,7 +5674,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5686,7 +5682,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5694,7 +5690,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5702,7 +5698,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5710,7 +5706,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5718,7 +5714,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5726,7 +5722,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5734,7 +5730,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5742,7 +5738,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5750,7 +5746,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5758,7 +5754,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5766,7 +5762,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5774,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5782,7 +5778,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5790,7 +5786,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5798,7 +5794,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5806,7 +5802,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5814,7 +5810,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5822,7 +5818,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5830,7 +5826,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5838,7 +5834,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5846,7 +5842,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5854,7 +5850,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5862,7 +5858,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5870,7 +5866,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5878,7 +5874,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5886,7 +5882,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5894,7 +5890,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5902,7 +5898,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5910,7 +5906,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5918,7 +5914,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5926,7 +5922,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5934,7 +5930,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5942,7 +5938,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5950,7 +5946,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5958,7 +5954,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5966,7 +5962,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5974,7 +5970,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5982,7 +5978,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5990,7 +5986,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5998,7 +5994,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6006,7 +6002,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6014,7 +6010,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6022,7 +6018,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6030,7 +6026,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6038,7 +6034,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6046,7 +6042,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6054,7 +6050,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>163</v>
+        <v>42</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6062,7 +6058,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6070,7 +6066,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>218</v>
+        <v>43</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6078,7 +6074,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>227</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6086,7 +6082,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>194</v>
+        <v>38</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6094,7 +6090,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>142</v>
+        <v>53</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6102,7 +6098,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6110,7 +6106,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6118,7 +6114,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6126,7 +6122,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6134,7 +6130,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6142,7 +6138,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6150,7 +6146,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6158,7 +6154,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6166,7 +6162,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6174,7 +6170,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6182,7 +6178,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6190,7 +6186,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6198,7 +6194,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6206,7 +6202,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6214,7 +6210,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6222,7 +6218,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6230,7 +6226,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6238,7 +6234,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6246,7 +6242,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6254,7 +6250,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6262,7 +6258,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6270,7 +6266,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6278,7 +6274,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6286,7 +6282,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6294,7 +6290,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6302,7 +6298,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6310,7 +6306,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6318,7 +6314,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6326,7 +6322,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6334,7 +6330,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6342,7 +6338,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6350,7 +6346,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6358,7 +6354,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6366,7 +6362,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6374,7 +6370,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6382,7 +6378,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6390,7 +6386,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6398,7 +6394,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6406,7 +6402,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6414,7 +6410,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>107</v>
+        <v>46</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6422,7 +6418,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>129</v>
+        <v>52</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6430,7 +6426,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6438,7 +6434,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6446,7 +6442,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6454,7 +6450,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>136</v>
+        <v>56</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6462,7 +6458,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>171</v>
+        <v>65</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6470,7 +6466,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>248</v>
+        <v>55</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6478,7 +6474,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>349</v>
+        <v>58</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6486,7 +6482,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>407</v>
+        <v>65</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6494,7 +6490,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>490</v>
+        <v>61</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6502,7 +6498,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>703</v>
+        <v>63</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6510,7 +6506,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>844</v>
+        <v>71</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6518,7 +6514,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>977</v>
+        <v>60</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6526,7 +6522,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>1030</v>
+        <v>74</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6534,7 +6530,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>916</v>
+        <v>65</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6542,7 +6538,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>599</v>
+        <v>31</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6550,7 +6546,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>237</v>
+        <v>26</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6558,7 +6554,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6566,7 +6562,7 @@
         <v>0.9950000000000001</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6602,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6610,26 +6606,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>996</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>951</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>976</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6637,410 +6633,406 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>920</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>994</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
       <c r="B9">
-        <f>SUM(B1:B83</f>
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>976</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>956</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>958</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>943</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>972</v>
+        <v>941</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>948</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>975</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>965</v>
+        <v>935</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>977</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>979</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>933</v>
+        <v>988</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>939</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>963</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>967</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>951</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>951</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>967</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>998</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>984</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>965</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1016</v>
+        <v>978</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>1011</v>
+        <v>926</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>988</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>1002</v>
+        <v>958</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>959</v>
+        <v>977</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>1000</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>984</v>
+        <v>953</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>874</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>977</v>
+        <v>950</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>936</v>
+        <v>954</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>978</v>
+        <v>947</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>1018</v>
+        <v>971</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>1011</v>
+        <v>943</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>960</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>968</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1003</v>
+        <v>979</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>986</v>
+        <v>965</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>981</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>970</v>
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>959</v>
+        <v>996</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>904</v>
+        <v>990</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>987</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>1036</v>
+        <v>981</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>995</v>
+        <v>922</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>991</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>916</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1022</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>953</v>
+        <v>962</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>969</v>
+        <v>927</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>976</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1008</v>
+        <v>976</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>952</v>
+        <v>987</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>1023</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>972</v>
+        <v>960</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>978</v>
+        <v>933</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>958</v>
+        <v>920</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>1051</v>
+        <v>941</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1040</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>997</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>993</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>964</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1881,637 +1881,637 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="191">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="250">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="251">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="252">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="254">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="255">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="197">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="261">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="394">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="200">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>74</c:v>
-                </c:pt>
                 <c:pt idx="395">
-                  <c:v>65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>0</c:v>
@@ -2633,291 +2633,294 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$83</c:f>
+              <c:f>Randomness_Check!$A$1:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$83</c:f>
+              <c:f>Randomness_Check!$B$1:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>976</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>979</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>945</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>958</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>950</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>941</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1005</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>935</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>946</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>988</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="40">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>931</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>926</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>947</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>920</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>941</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1007</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>940</c:v>
+                  <c:v>898</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>961</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>938</c:v>
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,7 +4885,7 @@
         <v>-0.05499999999999994</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4890,7 +4893,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4898,7 +4901,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4906,7 +4909,7 @@
         <v>-0.04000000000000004</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4914,7 +4917,7 @@
         <v>-0.03500000000000003</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4922,7 +4925,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4930,7 +4933,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4938,7 +4941,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4946,7 +4949,7 @@
         <v>-0.01500000000000001</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4954,7 +4957,7 @@
         <v>-0.01000000000000001</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4962,7 +4965,7 @@
         <v>-0.005000000000000004</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4970,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4978,7 +4981,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4986,7 +4989,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4994,7 +4997,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5002,7 +5005,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5010,7 +5013,7 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="B206">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5018,7 +5021,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5026,7 +5029,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5034,7 +5037,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5042,7 +5045,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5050,7 +5053,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5058,7 +5061,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5066,7 +5069,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5074,7 +5077,7 @@
         <v>0.06499999999999995</v>
       </c>
       <c r="B214">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5082,7 +5085,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5090,7 +5093,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5098,7 +5101,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5106,7 +5109,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5114,7 +5117,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5122,7 +5125,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5130,7 +5133,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5138,7 +5141,7 @@
         <v>0.105</v>
       </c>
       <c r="B222">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5146,7 +5149,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="B223">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5154,7 +5157,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5162,7 +5165,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5170,7 +5173,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5178,7 +5181,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5186,7 +5189,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5194,7 +5197,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5202,7 +5205,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5210,7 +5213,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5218,7 +5221,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5226,7 +5229,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5234,7 +5237,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5242,7 +5245,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5250,7 +5253,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5258,7 +5261,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5266,7 +5269,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5274,7 +5277,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5282,7 +5285,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5290,7 +5293,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5298,7 +5301,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5306,7 +5309,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5314,7 +5317,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5322,7 +5325,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5330,7 +5333,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5338,7 +5341,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5346,7 +5349,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5354,7 +5357,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5362,7 +5365,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5370,7 +5373,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5378,7 +5381,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5386,7 +5389,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5394,7 +5397,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5402,7 +5405,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5410,7 +5413,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5418,7 +5421,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5426,7 +5429,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5434,7 +5437,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5442,7 +5445,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5450,7 +5453,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5458,7 +5461,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5466,7 +5469,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5474,7 +5477,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5482,7 +5485,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5490,7 +5493,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5498,7 +5501,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5506,7 +5509,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5514,7 +5517,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5522,7 +5525,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5530,7 +5533,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5538,7 +5541,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5546,7 +5549,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5554,7 +5557,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5562,7 +5565,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5570,7 +5573,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5578,7 +5581,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5586,7 +5589,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5594,7 +5597,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5602,7 +5605,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5610,7 +5613,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5618,7 +5621,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5626,7 +5629,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5634,7 +5637,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5642,7 +5645,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5650,7 +5653,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5658,7 +5661,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5666,7 +5669,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5674,7 +5677,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5682,7 +5685,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5690,7 +5693,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5698,7 +5701,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5706,7 +5709,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5714,7 +5717,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5722,7 +5725,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5730,7 +5733,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5738,7 +5741,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5746,7 +5749,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5754,7 +5757,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5762,7 +5765,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5770,7 +5773,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5778,7 +5781,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>94</v>
+        <v>26</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5786,7 +5789,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5794,7 +5797,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5802,7 +5805,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5810,7 +5813,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5818,7 +5821,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5826,7 +5829,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5834,7 +5837,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5842,7 +5845,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5850,7 +5853,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5858,7 +5861,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5866,7 +5869,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5874,7 +5877,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5882,7 +5885,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5890,7 +5893,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5898,7 +5901,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5906,7 +5909,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5914,7 +5917,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5922,7 +5925,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5930,7 +5933,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5938,7 +5941,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5946,7 +5949,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5954,7 +5957,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5962,7 +5965,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5970,7 +5973,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5978,7 +5981,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5986,7 +5989,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5994,7 +5997,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6002,7 +6005,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6010,7 +6013,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6018,7 +6021,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6026,7 +6029,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6034,7 +6037,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6042,7 +6045,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6050,7 +6053,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>42</v>
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6058,7 +6061,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6066,7 +6069,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6074,7 +6077,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>33</v>
+        <v>119</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6082,7 +6085,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>38</v>
+        <v>121</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6090,7 +6093,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>53</v>
+        <v>143</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6098,7 +6101,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>50</v>
+        <v>142</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6106,7 +6109,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>50</v>
+        <v>144</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6114,7 +6117,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6122,7 +6125,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>58</v>
+        <v>128</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6130,7 +6133,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>41</v>
+        <v>170</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6138,7 +6141,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6146,7 +6149,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6154,7 +6157,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>26</v>
+        <v>171</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6162,7 +6165,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6170,7 +6173,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6178,7 +6181,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6186,7 +6189,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6194,7 +6197,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6202,7 +6205,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>48</v>
+        <v>172</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6210,7 +6213,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6218,7 +6221,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>68</v>
+        <v>157</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6226,7 +6229,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>60</v>
+        <v>178</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6234,7 +6237,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6242,7 +6245,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>47</v>
+        <v>150</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6250,7 +6253,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>63</v>
+        <v>139</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6258,7 +6261,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6266,7 +6269,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6274,7 +6277,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>72</v>
+        <v>138</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6282,7 +6285,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>79</v>
+        <v>170</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6290,7 +6293,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>65</v>
+        <v>136</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6298,7 +6301,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>64</v>
+        <v>171</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6306,7 +6309,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6314,7 +6317,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6322,7 +6325,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6330,7 +6333,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>56</v>
+        <v>139</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6338,7 +6341,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>71</v>
+        <v>159</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6346,7 +6349,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>67</v>
+        <v>163</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6354,7 +6357,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6362,7 +6365,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>74</v>
+        <v>131</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6370,7 +6373,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6378,7 +6381,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6386,7 +6389,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6394,7 +6397,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6402,7 +6405,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6410,7 +6413,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6418,7 +6421,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6426,7 +6429,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6434,7 +6437,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6442,7 +6445,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6450,7 +6453,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6458,7 +6461,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6466,7 +6469,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6474,7 +6477,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6482,7 +6485,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6490,7 +6493,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6498,7 +6501,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6506,7 +6509,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6514,7 +6517,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6522,7 +6525,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6530,7 +6533,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6538,7 +6541,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6546,7 +6549,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6554,7 +6557,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6562,7 +6565,7 @@
         <v>0.9950000000000001</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6590,7 +6593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6598,7 +6601,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6606,113 +6609,113 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>979</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>945</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>958</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>950</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>946</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>976</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
-        <v>950</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>1035</v>
+        <v>991</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>998</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>925</v>
+        <v>965</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>981</v>
+        <v>967</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>941</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>1005</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>1005</v>
+        <v>950</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>935</v>
+        <v>997</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6722,317 +6725,322 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>988</v>
+        <v>945</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>1025</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>931</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1020</v>
+        <v>994</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>965</v>
+        <v>924</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>933</v>
+        <v>944</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>1002</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>978</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>958</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>997</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>1007</v>
+        <v>957</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>1009</v>
+        <v>944</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>978</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>1009</v>
+        <v>983</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>958</v>
+        <v>980</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>977</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>1009</v>
+        <v>988</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>953</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>925</v>
+        <v>936</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>990</v>
+        <v>942</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>954</v>
+        <v>930</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>947</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>971</v>
+        <v>954</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>943</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1018</v>
+        <v>949</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1006</v>
+        <v>935</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>998</v>
+        <v>949</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>979</v>
+        <v>955</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>965</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1000</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>990</v>
+        <v>967</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>996</v>
+        <v>982</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>965</v>
+        <v>992</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>981</v>
+        <v>911</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>922</v>
+        <v>984</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>984</v>
+        <v>967</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1074</v>
+        <v>997</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1007</v>
+        <v>932</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>962</v>
+        <v>977</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>927</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>983</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>1020</v>
+        <v>938</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>973</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>976</v>
+        <v>945</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>987</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>960</v>
+        <v>927</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>933</v>
+        <v>985</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>920</v>
+        <v>931</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>941</v>
+        <v>974</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1007</v>
+        <v>912</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>940</v>
+        <v>898</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>961</v>
+        <v>993</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>938</v>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1995,514 +1995,514 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="231">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="247">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="249">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="250">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>14</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>15</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>11</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>18</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>14</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>14</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>13</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>17</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>22</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>20</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>22</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>19</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>19</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>25</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>26</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>27</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>35</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>29</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>29</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>16</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>28</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>32</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>24</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>33</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>34</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>38</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>32</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="299">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="300">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="300">
+                <c:pt idx="301">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="351">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="301">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="306">
+                <c:pt idx="352">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="353">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="307">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="310">
+                <c:pt idx="354">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="356">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="311">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="322">
+                <c:pt idx="357">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="360">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="323">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="328">
+                <c:pt idx="361">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="362">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="329">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="331">
+                <c:pt idx="363">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="364">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="332">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="349">
+                <c:pt idx="365">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="373">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="350">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="361">
+                <c:pt idx="374">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="375">
                   <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="376">
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>96</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>99</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>109</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="380">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="383">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="381">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="382">
+                <c:pt idx="384">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="388">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="383">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="385">
+                <c:pt idx="389">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="390">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="386">
+                <c:pt idx="391">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="392">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="387">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="392">
+                <c:pt idx="393">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="396">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="397">
                   <c:v>0</c:v>
@@ -2638,28 +2638,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,253 +2677,253 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975</c:v>
+                  <c:v>1104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>962</c:v>
+                  <c:v>1073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>978</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>966</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>973</c:v>
+                  <c:v>1064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>967</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>958</c:v>
+                  <c:v>1074</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>929</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>991</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1020</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>965</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>967</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>987</c:v>
+                  <c:v>1049</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>888</c:v>
+                  <c:v>1048</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>977</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>950</c:v>
+                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>997</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>940</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>990</c:v>
+                  <c:v>1112</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>945</c:v>
+                  <c:v>1091</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>888</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>970</c:v>
+                  <c:v>1098</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>994</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>924</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>944</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>904</c:v>
+                  <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1015</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>959</c:v>
+                  <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>929</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1021</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>957</c:v>
+                  <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>944</c:v>
+                  <c:v>1047</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1026</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>954</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>928</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>983</c:v>
+                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>980</c:v>
+                  <c:v>1085</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>963</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>988</c:v>
+                  <c:v>1065</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1011</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>936</c:v>
+                  <c:v>1073</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>942</c:v>
+                  <c:v>1089</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>963</c:v>
+                  <c:v>1064</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>984</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>930</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>964</c:v>
+                  <c:v>1124</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>954</c:v>
+                  <c:v>1072</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1005</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>949</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>935</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>949</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>955</c:v>
+                  <c:v>1095</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1013</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>965</c:v>
+                  <c:v>1179</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>967</c:v>
+                  <c:v>1047</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>982</c:v>
+                  <c:v>1099</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>986</c:v>
+                  <c:v>1083</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>992</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>911</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>984</c:v>
+                  <c:v>1115</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>967</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1015</c:v>
+                  <c:v>1045</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>997</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>932</c:v>
+                  <c:v>1103</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>963</c:v>
+                  <c:v>1104</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>967</c:v>
+                  <c:v>1095</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>977</c:v>
+                  <c:v>1035</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1011</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1014</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>938</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>945</c:v>
+                  <c:v>1096</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>945</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>933</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>992</c:v>
+                  <c:v>1018</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>927</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>985</c:v>
+                  <c:v>1083</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>931</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>974</c:v>
+                  <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>912</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>898</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>993</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>945</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>966</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5189,7 +5192,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5205,7 +5208,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5213,7 +5216,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5229,7 +5232,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5237,7 +5240,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5245,7 +5248,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5253,7 +5256,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5261,7 +5264,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5269,7 +5272,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5277,7 +5280,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5285,7 +5288,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5293,7 +5296,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5301,7 +5304,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5309,7 +5312,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5317,7 +5320,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5325,7 +5328,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5333,7 +5336,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5341,7 +5344,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5349,7 +5352,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5357,7 +5360,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5365,7 +5368,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5373,7 +5376,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5381,7 +5384,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5389,7 +5392,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5397,7 +5400,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5405,7 +5408,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5413,7 +5416,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5421,7 +5424,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5429,7 +5432,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5437,7 +5440,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5445,7 +5448,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5453,7 +5456,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5461,7 +5464,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5469,7 +5472,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5477,7 +5480,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5485,7 +5488,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5493,7 +5496,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5501,7 +5504,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5509,7 +5512,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5517,7 +5520,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5525,7 +5528,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5533,7 +5536,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5541,7 +5544,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5549,7 +5552,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5557,7 +5560,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5565,7 +5568,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5573,7 +5576,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5581,7 +5584,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5589,7 +5592,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5597,7 +5600,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5605,7 +5608,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5613,7 +5616,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5621,7 +5624,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5629,7 +5632,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5637,7 +5640,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5645,7 +5648,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5653,7 +5656,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5661,7 +5664,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5669,7 +5672,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5677,7 +5680,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5685,7 +5688,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5693,7 +5696,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5701,7 +5704,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5709,7 +5712,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5717,7 +5720,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5725,7 +5728,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5733,7 +5736,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5741,7 +5744,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5757,7 +5760,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5765,7 +5768,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5773,7 +5776,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5781,7 +5784,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5789,7 +5792,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5797,7 +5800,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5805,7 +5808,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5813,7 +5816,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5821,7 +5824,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5829,7 +5832,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5837,7 +5840,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5845,7 +5848,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5853,7 +5856,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5861,7 +5864,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5869,7 +5872,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5877,7 +5880,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5885,7 +5888,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5893,7 +5896,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5901,7 +5904,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>50</v>
+        <v>134</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5909,7 +5912,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5917,7 +5920,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5925,7 +5928,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5933,7 +5936,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5941,7 +5944,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>61</v>
+        <v>144</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5949,7 +5952,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>88</v>
+        <v>141</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5957,7 +5960,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5965,7 +5968,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>86</v>
+        <v>123</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5973,7 +5976,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5981,7 +5984,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>67</v>
+        <v>166</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5989,7 +5992,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5997,7 +6000,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6005,7 +6008,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6013,7 +6016,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6021,7 +6024,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6029,7 +6032,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6037,7 +6040,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6045,7 +6048,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6053,7 +6056,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6061,7 +6064,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6069,7 +6072,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>120</v>
+        <v>52</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6077,7 +6080,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>119</v>
+        <v>46</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6085,7 +6088,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>121</v>
+        <v>40</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6093,7 +6096,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>143</v>
+        <v>40</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6101,7 +6104,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>142</v>
+        <v>40</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6109,7 +6112,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>144</v>
+        <v>33</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6117,7 +6120,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6125,7 +6128,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6133,7 +6136,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6141,7 +6144,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6149,7 +6152,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6157,7 +6160,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>171</v>
+        <v>32</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6165,7 +6168,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>147</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6173,7 +6176,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>155</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6181,7 +6184,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>173</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6189,7 +6192,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6197,7 +6200,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6205,7 +6208,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>172</v>
+        <v>49</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6213,7 +6216,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>136</v>
+        <v>58</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6221,7 +6224,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>157</v>
+        <v>46</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6229,7 +6232,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>178</v>
+        <v>47</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6237,7 +6240,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6245,7 +6248,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>150</v>
+        <v>73</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6253,7 +6256,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>139</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6261,7 +6264,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6269,7 +6272,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>168</v>
+        <v>75</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6277,7 +6280,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6285,7 +6288,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6293,7 +6296,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6301,7 +6304,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>171</v>
+        <v>114</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6309,7 +6312,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6317,7 +6320,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6325,7 +6328,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6333,7 +6336,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6341,7 +6344,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6349,7 +6352,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6357,7 +6360,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6365,7 +6368,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6373,7 +6376,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6389,7 +6392,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6397,7 +6400,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6405,7 +6408,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6413,7 +6416,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6421,7 +6424,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6429,7 +6432,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6437,7 +6440,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6445,7 +6448,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6453,7 +6456,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6461,7 +6464,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6469,7 +6472,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6477,7 +6480,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6485,7 +6488,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6493,7 +6496,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6501,7 +6504,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6509,7 +6512,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6517,7 +6520,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6525,7 +6528,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6533,7 +6536,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6541,7 +6544,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6601,7 +6604,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6609,438 +6612,441 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>975</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>962</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>978</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>966</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>973</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>967</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>958</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:2">
+      <c r="A9">
+        <v>45</v>
+      </c>
       <c r="B9">
-        <v>929</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>991</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>965</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>967</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>987</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>888</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>977</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>950</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>997</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>940</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>990</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>945</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>888</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>970</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>994</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>924</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>944</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>904</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1015</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>959</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>929</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1021</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>957</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>944</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>1026</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>954</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>928</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>983</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>980</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>963</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>988</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>1011</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>936</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>942</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>963</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>984</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>930</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>964</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>954</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>1005</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>949</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>935</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>949</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>955</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1013</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>965</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>967</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>982</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>986</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>992</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>911</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>984</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>967</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1015</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>997</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>932</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>963</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>967</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>977</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>1011</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1014</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>938</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>945</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>945</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>933</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>992</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>927</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>985</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>931</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>974</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>912</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>898</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>993</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>945</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84">
-        <v>966</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1842,667 +1842,667 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>3</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>5</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="241">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="242">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="261">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="262">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="248">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="263">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="264">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>23</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>33</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>39</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>32</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>26</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>46</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>33</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>53</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>44</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>51</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>62</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>70</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>78</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>67</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>58</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>72</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>67</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>67</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>53</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>61</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>57</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>60</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>47</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>54</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>53</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>48</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>40</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>50</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>49</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>37</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>49</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>40</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>45</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>51</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>31</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>57</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>62</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>65</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>71</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>72</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>99</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>89</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>102</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>112</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>110</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>133</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>134</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>132</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>140</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>144</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>141</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>148</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>123</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>132</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>166</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>152</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>132</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>121</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>80</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>81</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>74</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>40</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>29</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>34</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>34</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>41</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>49</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>58</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>47</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>73</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>91</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>114</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>125</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>135</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>131</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>151</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>147</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>130</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>125</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="397">
                   <c:v>0</c:v>
@@ -2638,31 +2638,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,253 +2677,247 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1104</c:v>
+                  <c:v>1090</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1073</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1105</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1113</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1061</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1151</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1102</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1059</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1082</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1063</c:v>
+                  <c:v>1139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1076</c:v>
+                  <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1112</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1091</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1040</c:v>
+                  <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1098</c:v>
+                  <c:v>1103</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1088</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1054</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1094</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="46">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1047</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>1077</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1123</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1169</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1063</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1124</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="54">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>1072</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1117</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1097</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1063</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1179</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1083</c:v>
-                </c:pt>
                 <c:pt idx="58">
-                  <c:v>1070</c:v>
+                  <c:v>1112</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1115</c:v>
+                  <c:v>1146</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1071</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1045</c:v>
+                  <c:v>1085</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1054</c:v>
+                  <c:v>1107</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1103</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>1104</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="73">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>1095</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1117</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1122</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1080</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>1094</c:v>
+                  <c:v>1141</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1130</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1067</c:v>
+                  <c:v>1133</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1075</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1168</c:v>
+                  <c:v>1087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4784,7 +4778,7 @@
         <v>-0.12</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4792,7 +4786,7 @@
         <v>-0.115</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4800,7 +4794,7 @@
         <v>-0.11</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4808,7 +4802,7 @@
         <v>-0.105</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4816,7 +4810,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4824,7 +4818,7 @@
         <v>-0.09499999999999997</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4832,7 +4826,7 @@
         <v>-0.08999999999999997</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4840,7 +4834,7 @@
         <v>-0.08499999999999996</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4848,7 +4842,7 @@
         <v>-0.07999999999999996</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4856,7 +4850,7 @@
         <v>-0.07499999999999996</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4864,7 +4858,7 @@
         <v>-0.06999999999999995</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4872,7 +4866,7 @@
         <v>-0.06499999999999995</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4880,7 +4874,7 @@
         <v>-0.05999999999999994</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4888,7 +4882,7 @@
         <v>-0.05499999999999994</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4896,7 +4890,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4904,7 +4898,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4912,7 +4906,7 @@
         <v>-0.04000000000000004</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4920,7 +4914,7 @@
         <v>-0.03500000000000003</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4928,7 +4922,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4936,7 +4930,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4944,7 +4938,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4952,7 +4946,7 @@
         <v>-0.01500000000000001</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4960,7 +4954,7 @@
         <v>-0.01000000000000001</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4968,7 +4962,7 @@
         <v>-0.005000000000000004</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4976,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4984,7 +4978,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4992,7 +4986,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5000,7 +4994,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5008,7 +5002,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5016,7 +5010,7 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5024,7 +5018,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5032,7 +5026,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5040,7 +5034,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5048,7 +5042,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5056,7 +5050,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5064,7 +5058,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5072,7 +5066,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5080,7 +5074,7 @@
         <v>0.06499999999999995</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5088,7 +5082,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5096,7 +5090,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5104,7 +5098,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5112,7 +5106,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5120,7 +5114,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5128,7 +5122,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5136,7 +5130,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5144,7 +5138,7 @@
         <v>0.105</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5152,7 +5146,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5160,7 +5154,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5168,7 +5162,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5176,7 +5170,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5184,7 +5178,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5192,7 +5186,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5200,7 +5194,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5208,7 +5202,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5216,7 +5210,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5224,7 +5218,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5232,7 +5226,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5240,7 +5234,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5248,7 +5242,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5256,7 +5250,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5264,7 +5258,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5272,7 +5266,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5280,7 +5274,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5288,7 +5282,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5296,7 +5290,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5304,7 +5298,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5312,7 +5306,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5320,7 +5314,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5328,7 +5322,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5336,7 +5330,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5344,7 +5338,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5352,7 +5346,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5360,7 +5354,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5368,7 +5362,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5376,7 +5370,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5384,7 +5378,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5392,7 +5386,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5400,7 +5394,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5408,7 +5402,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5416,7 +5410,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5424,7 +5418,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5432,7 +5426,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5440,7 +5434,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5448,7 +5442,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5456,7 +5450,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5464,7 +5458,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5472,7 +5466,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5480,7 +5474,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5496,7 +5490,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5504,7 +5498,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5512,7 +5506,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5520,7 +5514,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5528,7 +5522,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5536,7 +5530,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5544,7 +5538,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5552,7 +5546,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5560,7 +5554,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5568,7 +5562,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5576,7 +5570,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5584,7 +5578,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5592,7 +5586,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5600,7 +5594,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5608,7 +5602,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5616,7 +5610,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5624,7 +5618,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5632,7 +5626,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5640,7 +5634,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5648,7 +5642,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5656,7 +5650,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5664,7 +5658,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5672,7 +5666,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5680,7 +5674,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5688,7 +5682,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5696,7 +5690,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5704,7 +5698,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5712,7 +5706,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5720,7 +5714,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5728,7 +5722,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5736,7 +5730,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5744,7 +5738,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5752,7 +5746,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5760,7 +5754,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5768,7 +5762,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5776,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5784,7 +5778,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5792,7 +5786,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5800,7 +5794,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5808,7 +5802,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5816,7 +5810,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5824,7 +5818,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5832,7 +5826,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5840,7 +5834,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5848,7 +5842,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5856,7 +5850,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5864,7 +5858,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5872,7 +5866,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5880,7 +5874,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5888,7 +5882,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5896,7 +5890,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5904,7 +5898,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5912,7 +5906,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5920,7 +5914,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5928,7 +5922,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5936,7 +5930,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5944,7 +5938,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5952,7 +5946,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5960,7 +5954,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>148</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5968,7 +5962,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5976,7 +5970,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5984,7 +5978,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5992,7 +5986,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6000,7 +5994,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6008,7 +6002,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6016,7 +6010,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6024,7 +6018,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6032,7 +6026,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6040,7 +6034,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6048,7 +6042,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6056,7 +6050,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6064,7 +6058,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6072,7 +6066,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6080,7 +6074,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6088,7 +6082,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6096,7 +6090,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6104,7 +6098,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6112,7 +6106,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6120,7 +6114,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6128,7 +6122,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6136,7 +6130,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6144,7 +6138,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6152,7 +6146,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6160,7 +6154,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6168,7 +6162,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6176,7 +6170,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6184,7 +6178,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6192,7 +6186,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6200,7 +6194,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6208,7 +6202,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6216,7 +6210,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6224,7 +6218,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6232,7 +6226,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6240,7 +6234,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6248,7 +6242,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6256,7 +6250,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6264,7 +6258,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6272,7 +6266,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6280,7 +6274,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6288,7 +6282,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6296,7 +6290,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6304,7 +6298,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6312,7 +6306,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6320,7 +6314,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6328,7 +6322,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6336,7 +6330,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6344,7 +6338,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6352,7 +6346,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6360,7 +6354,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6368,7 +6362,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6376,7 +6370,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6384,7 +6378,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6392,7 +6386,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6400,7 +6394,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6408,7 +6402,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6416,7 +6410,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6424,7 +6418,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6432,7 +6426,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6440,7 +6434,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6448,7 +6442,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6456,7 +6450,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6464,7 +6458,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6472,7 +6466,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6480,7 +6474,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6488,7 +6482,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6496,7 +6490,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6504,7 +6498,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6512,7 +6506,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6520,7 +6514,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6528,7 +6522,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6536,7 +6530,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6544,7 +6538,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6596,7 +6590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6604,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6612,116 +6606,116 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>1104</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>1073</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>1105</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>1120</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>1064</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>1113</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>1074</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B9">
-        <v>1061</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>1151</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>1033</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>1060</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>1102</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>1049</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>1048</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>1059</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>1082</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1063</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>1076</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6731,197 +6725,197 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>1091</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>1040</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>1098</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1088</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>1090</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>1060</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>1093</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1054</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>1093</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>1059</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1066</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>1094</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>1047</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>1077</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1071</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>1057</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>1123</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>1085</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>1169</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>1065</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>1050</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>1073</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>1089</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>1064</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>1078</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>1063</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>1072</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>1088</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1117</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1097</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>1040</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1095</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1063</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1179</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>1047</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>1083</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>1070</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="60" spans="2:2">
@@ -6931,122 +6925,112 @@
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>1115</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1045</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1054</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1103</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>1104</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>1095</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1035</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>1117</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1122</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>1101</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>1096</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>1059</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>1018</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>1083</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>1080</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>1094</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1130</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>1067</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84">
-        <v>1168</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1842,673 +1842,673 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>62</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>185</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>209</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>259</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>261</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>293</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>287</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>281</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>251</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>291</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>259</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>241</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>232</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>209</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>208</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>192</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>207</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>211</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>173</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>159</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>143</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>157</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>127</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>114</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>79</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>86</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>80</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="316">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="317">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="317">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="318">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="320">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="321">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="321">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="322">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>2</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>2</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>1</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>1</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>0</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>1</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>0</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>0</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>0</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>0</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>0</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>0</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>0</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>0</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>0</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>0</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>0</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>0</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>0</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>0</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="399">
                   <c:v>0</c:v>
@@ -2633,291 +2633,306 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$84</c:f>
+              <c:f>Randomness_Check!$A$1:$A$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$84</c:f>
+              <c:f>Randomness_Check!$B$1:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>1090</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1151</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1135</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1139</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1113</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1121</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1142</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1103</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1105</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1122</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1139</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1121</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1118</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1103</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1182</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1129</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1133</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1130</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1082</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1076</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1145</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1052</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1106</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1106</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1113</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1129</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1147</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1123</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1086</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1130</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1118</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1152</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1144</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1123</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1117</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1141</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1072</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1122</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1146</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1076</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1107</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1076</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1127</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1119</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1061</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1108</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1082</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1117</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1104</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1097</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1164</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1128</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1141</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1102</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1133</c:v>
-                </c:pt>
                 <c:pt idx="81">
-                  <c:v>1087</c:v>
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4778,7 +4793,7 @@
         <v>-0.12</v>
       </c>
       <c r="B177">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4786,7 +4801,7 @@
         <v>-0.115</v>
       </c>
       <c r="B178">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4794,7 +4809,7 @@
         <v>-0.11</v>
       </c>
       <c r="B179">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4802,7 +4817,7 @@
         <v>-0.105</v>
       </c>
       <c r="B180">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4810,7 +4825,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B181">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4818,7 +4833,7 @@
         <v>-0.09499999999999997</v>
       </c>
       <c r="B182">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4826,7 +4841,7 @@
         <v>-0.08999999999999997</v>
       </c>
       <c r="B183">
-        <v>261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4834,7 +4849,7 @@
         <v>-0.08499999999999996</v>
       </c>
       <c r="B184">
-        <v>306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4842,7 +4857,7 @@
         <v>-0.07999999999999996</v>
       </c>
       <c r="B185">
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4850,7 +4865,7 @@
         <v>-0.07499999999999996</v>
       </c>
       <c r="B186">
-        <v>293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4858,7 +4873,7 @@
         <v>-0.06999999999999995</v>
       </c>
       <c r="B187">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4866,7 +4881,7 @@
         <v>-0.06499999999999995</v>
       </c>
       <c r="B188">
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4874,7 +4889,7 @@
         <v>-0.05999999999999994</v>
       </c>
       <c r="B189">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4882,7 +4897,7 @@
         <v>-0.05499999999999994</v>
       </c>
       <c r="B190">
-        <v>276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4890,7 +4905,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B191">
-        <v>291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4898,7 +4913,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4906,7 +4921,7 @@
         <v>-0.04000000000000004</v>
       </c>
       <c r="B193">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4914,7 +4929,7 @@
         <v>-0.03500000000000003</v>
       </c>
       <c r="B194">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4922,7 +4937,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4930,7 +4945,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4938,7 +4953,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="B197">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4946,7 +4961,7 @@
         <v>-0.01500000000000001</v>
       </c>
       <c r="B198">
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4954,7 +4969,7 @@
         <v>-0.01000000000000001</v>
       </c>
       <c r="B199">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4962,7 +4977,7 @@
         <v>-0.005000000000000004</v>
       </c>
       <c r="B200">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4970,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4978,7 +4993,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4986,7 +5001,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4994,7 +5009,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5002,7 +5017,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="B205">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5010,7 +5025,7 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="B206">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5018,7 +5033,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="B207">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5026,7 +5041,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5034,7 +5049,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5042,7 +5057,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5050,7 +5065,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5058,7 +5073,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5066,7 +5081,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5074,7 +5089,7 @@
         <v>0.06499999999999995</v>
       </c>
       <c r="B214">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5082,7 +5097,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5090,7 +5105,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5098,7 +5113,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5106,7 +5121,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5114,7 +5129,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5122,7 +5137,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5130,7 +5145,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5138,7 +5153,7 @@
         <v>0.105</v>
       </c>
       <c r="B222">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5146,7 +5161,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="B223">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5154,7 +5169,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5162,7 +5177,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5170,7 +5185,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5178,7 +5193,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5186,7 +5201,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5194,7 +5209,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5202,7 +5217,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5210,7 +5225,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5218,7 +5233,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5226,7 +5241,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5234,7 +5249,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5242,7 +5257,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5250,7 +5265,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5258,7 +5273,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5266,7 +5281,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5274,7 +5289,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5282,7 +5297,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5290,7 +5305,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5298,7 +5313,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5306,7 +5321,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5314,7 +5329,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5322,7 +5337,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5330,7 +5345,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5338,7 +5353,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5346,7 +5361,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5354,7 +5369,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5362,7 +5377,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5370,7 +5385,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5378,7 +5393,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5386,7 +5401,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5394,7 +5409,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5402,7 +5417,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5410,7 +5425,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5418,7 +5433,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5426,7 +5441,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5434,7 +5449,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5442,7 +5457,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5450,7 +5465,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5458,7 +5473,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5466,7 +5481,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5474,7 +5489,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5482,7 +5497,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5490,7 +5505,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5498,7 +5513,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5506,7 +5521,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5514,7 +5529,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5522,7 +5537,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5530,7 +5545,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5538,7 +5553,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5546,7 +5561,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5554,7 +5569,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5562,7 +5577,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5570,7 +5585,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5578,7 +5593,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5586,7 +5601,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5594,7 +5609,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5602,7 +5617,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5610,7 +5625,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5618,7 +5633,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5626,7 +5641,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5634,7 +5649,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5642,7 +5657,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5650,7 +5665,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5658,7 +5673,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5666,7 +5681,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5674,7 +5689,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5682,7 +5697,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5690,7 +5705,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5698,7 +5713,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5706,7 +5721,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5714,7 +5729,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5722,7 +5737,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5730,7 +5745,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5738,7 +5753,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5746,7 +5761,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5754,7 +5769,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5762,7 +5777,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5770,7 +5785,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5778,7 +5793,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5786,7 +5801,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5794,7 +5809,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5802,7 +5817,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5818,7 +5833,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5826,7 +5841,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5834,7 +5849,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5842,7 +5857,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5850,7 +5865,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5858,7 +5873,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5866,7 +5881,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5882,7 +5897,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5898,7 +5913,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5906,7 +5921,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5914,7 +5929,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5922,7 +5937,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5930,7 +5945,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5938,7 +5953,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5946,7 +5961,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5954,7 +5969,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5962,7 +5977,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5970,7 +5985,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5978,7 +5993,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5986,7 +6001,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5994,7 +6009,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6002,7 +6017,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6010,7 +6025,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6018,7 +6033,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6026,7 +6041,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6034,7 +6049,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6042,7 +6057,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6050,7 +6065,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6058,7 +6073,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6066,7 +6081,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6074,7 +6089,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6082,7 +6097,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6090,7 +6105,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6098,7 +6113,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6106,7 +6121,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6114,7 +6129,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6122,7 +6137,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6130,7 +6145,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6138,7 +6153,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6146,7 +6161,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6154,7 +6169,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6162,7 +6177,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6170,7 +6185,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6178,7 +6193,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6186,7 +6201,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6194,7 +6209,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6202,7 +6217,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6210,7 +6225,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6218,7 +6233,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6226,7 +6241,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6234,7 +6249,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6242,7 +6257,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6250,7 +6265,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6258,7 +6273,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6266,7 +6281,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6274,7 +6289,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6282,7 +6297,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6290,7 +6305,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6298,7 +6313,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6306,7 +6321,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6314,7 +6329,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6322,7 +6337,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6330,7 +6345,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6338,7 +6353,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6346,7 +6361,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6354,7 +6369,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6362,7 +6377,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6370,7 +6385,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6378,7 +6393,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6386,7 +6401,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6394,7 +6409,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6402,7 +6417,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6410,7 +6425,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>321</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6418,7 +6433,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>321</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6426,7 +6441,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6434,7 +6449,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>368</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6442,7 +6457,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6450,7 +6465,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6458,7 +6473,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6466,7 +6481,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>463</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6474,7 +6489,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6482,7 +6497,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>601</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6490,7 +6505,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>621</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6498,7 +6513,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6506,7 +6521,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6514,7 +6529,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6522,7 +6537,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>231</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6530,7 +6545,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6538,7 +6553,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6546,7 +6561,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6554,7 +6569,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6590,7 +6605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6598,7 +6613,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6606,431 +6621,456 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>1090</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1151</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>1128</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>1100</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>1135</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>1139</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>1110</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>1091</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>1113</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>1110</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>1140</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>1121</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>1142</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>1103</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>1105</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>1122</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1139</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>1121</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>1112</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>1100</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>1118</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>1103</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>1099</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>1129</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>1133</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1093</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>1105</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>1130</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1082</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>1112</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>1076</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>1145</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1052</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>1106</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>1089</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>1071</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>1106</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>1113</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>1129</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>1147</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>1123</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>1086</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>1130</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>1088</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>1118</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>1152</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>1144</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1123</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1089</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1085</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1117</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>1141</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>1101</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>1072</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>1112</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>1122</v>
+        <v>985</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>1146</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>1076</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1085</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1107</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1076</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>1127</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>1119</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1061</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>1140</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1108</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>1082</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>1117</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1104</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>1097</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>1164</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>1128</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>1095</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>1141</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1102</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>1133</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>1087</v>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87">
+        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1866,7 +1866,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>0</c:v>
@@ -1887,7 +1887,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>0</c:v>
@@ -1896,10 +1896,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>0</c:v>
@@ -1917,13 +1917,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="204">
                   <c:v>0</c:v>
@@ -1935,37 +1935,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="218">
                   <c:v>0</c:v>
@@ -1974,7 +1974,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>0</c:v>
@@ -1983,532 +1983,532 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="313">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="339">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="314">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="318">
+                <c:pt idx="340">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="319">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="320">
+                <c:pt idx="341">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="321">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="325">
+                <c:pt idx="342">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="343">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="326">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="337">
+                <c:pt idx="344">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="371">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="338">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="361">
+                <c:pt idx="372">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="398">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="399">
                   <c:v>0</c:v>
@@ -2633,306 +2633,297 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$87</c:f>
+              <c:f>Randomness_Check!$A$1:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$87</c:f>
+              <c:f>Randomness_Check!$B$1:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1017</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1101</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1040</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="44">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>1050</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1076</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1054</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="63">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1107</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>1046</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1034</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1081</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1062</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1055</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1058</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1017</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1034</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1017</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1104</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1052</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1061</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1056</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1075</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1075</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1062</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1077</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1058</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1084</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1063</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>955</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1055</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1084</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,7 +4848,7 @@
         <v>-0.07999999999999996</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4913,7 +4904,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4937,7 +4928,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4945,7 +4936,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4993,7 +4984,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5001,7 +4992,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5009,7 +5000,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5041,7 +5032,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5049,7 +5040,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5057,7 +5048,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5065,7 +5056,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5073,7 +5064,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5081,7 +5072,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5097,7 +5088,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5105,7 +5096,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5113,7 +5104,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5121,7 +5112,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5145,7 +5136,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5169,7 +5160,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5177,7 +5168,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5185,7 +5176,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5193,7 +5184,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5201,7 +5192,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5209,7 +5200,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5217,7 +5208,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5225,7 +5216,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5233,7 +5224,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5241,7 +5232,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5249,7 +5240,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5257,7 +5248,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5265,7 +5256,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5273,7 +5264,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5281,7 +5272,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5289,7 +5280,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5297,7 +5288,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5305,7 +5296,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5313,7 +5304,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5321,7 +5312,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5329,7 +5320,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5337,7 +5328,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5345,7 +5336,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5353,7 +5344,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5361,7 +5352,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5369,7 +5360,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5377,7 +5368,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5385,7 +5376,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5393,7 +5384,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5401,7 +5392,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5409,7 +5400,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5417,7 +5408,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5425,7 +5416,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5433,7 +5424,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5441,7 +5432,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5449,7 +5440,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5457,7 +5448,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5465,7 +5456,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5473,7 +5464,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5481,7 +5472,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5489,7 +5480,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5497,7 +5488,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5513,7 +5504,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5521,7 +5512,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5529,7 +5520,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5537,7 +5528,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5545,7 +5536,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5553,7 +5544,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5561,7 +5552,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5569,7 +5560,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5577,7 +5568,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5585,7 +5576,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5593,7 +5584,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5601,7 +5592,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5609,7 +5600,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5617,7 +5608,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5625,7 +5616,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5633,7 +5624,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5641,7 +5632,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5649,7 +5640,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5657,7 +5648,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5665,7 +5656,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5673,7 +5664,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5681,7 +5672,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5689,7 +5680,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5697,7 +5688,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5705,7 +5696,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5713,7 +5704,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5721,7 +5712,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5729,7 +5720,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5737,7 +5728,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5745,7 +5736,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5753,7 +5744,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5761,7 +5752,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5769,7 +5760,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5777,7 +5768,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5785,7 +5776,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5793,7 +5784,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5801,7 +5792,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5809,7 +5800,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5817,7 +5808,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5825,7 +5816,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5833,7 +5824,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5841,7 +5832,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5849,7 +5840,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5857,7 +5848,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5865,7 +5856,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5873,7 +5864,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5881,7 +5872,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5889,7 +5880,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5897,7 +5888,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5905,7 +5896,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5913,7 +5904,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5921,7 +5912,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5929,7 +5920,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5937,7 +5928,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5945,7 +5936,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5953,7 +5944,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5961,7 +5952,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5969,7 +5960,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5977,7 +5968,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5985,7 +5976,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5993,7 +5984,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -6001,7 +5992,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6009,7 +6000,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6017,7 +6008,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6025,7 +6016,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6033,7 +6024,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6041,7 +6032,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6049,7 +6040,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6057,7 +6048,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6065,7 +6056,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6073,7 +6064,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6081,7 +6072,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6089,7 +6080,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6097,7 +6088,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6105,7 +6096,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6113,7 +6104,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6121,7 +6112,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6129,7 +6120,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6137,7 +6128,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6145,7 +6136,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6153,7 +6144,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6161,7 +6152,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6169,7 +6160,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6177,7 +6168,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6185,7 +6176,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6193,7 +6184,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6201,7 +6192,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6209,7 +6200,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6217,7 +6208,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6225,7 +6216,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6233,7 +6224,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6241,7 +6232,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6249,7 +6240,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6257,7 +6248,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6265,7 +6256,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6273,7 +6264,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6281,7 +6272,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6289,7 +6280,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6297,7 +6288,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6305,7 +6296,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6313,7 +6304,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6321,7 +6312,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6329,7 +6320,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>135</v>
+        <v>38</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6337,7 +6328,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>139</v>
+        <v>34</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6345,7 +6336,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>157</v>
+        <v>51</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6353,7 +6344,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>141</v>
+        <v>39</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6361,7 +6352,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6369,7 +6360,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6377,7 +6368,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6385,7 +6376,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6393,7 +6384,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>203</v>
+        <v>100</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6401,7 +6392,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6409,7 +6400,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>247</v>
+        <v>130</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6417,7 +6408,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>256</v>
+        <v>165</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6425,7 +6416,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>321</v>
+        <v>143</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6433,7 +6424,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>321</v>
+        <v>155</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6441,7 +6432,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>348</v>
+        <v>185</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6449,7 +6440,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>368</v>
+        <v>230</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6457,7 +6448,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>370</v>
+        <v>231</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6465,7 +6456,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>362</v>
+        <v>210</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6473,7 +6464,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6481,7 +6472,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>463</v>
+        <v>239</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6489,7 +6480,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>583</v>
+        <v>269</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6497,7 +6488,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>601</v>
+        <v>294</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6505,7 +6496,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>621</v>
+        <v>315</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6513,7 +6504,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>563</v>
+        <v>277</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6521,7 +6512,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>482</v>
+        <v>248</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6529,7 +6520,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>325</v>
+        <v>233</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6537,7 +6528,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>231</v>
+        <v>162</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6545,7 +6536,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>98</v>
+        <v>186</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6553,7 +6544,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6561,7 +6552,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6569,7 +6560,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6605,7 +6596,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6613,7 +6604,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6621,456 +6612,441 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>1017</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>1101</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1040</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>1050</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>1076</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>1054</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1008</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>1046</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>1033</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>1066</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>1081</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>1062</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>1055</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1011</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>1006</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>1058</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>1018</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>1034</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1030</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>1039</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>1017</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>1104</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1037</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>1027</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>1032</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1051</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>1051</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>1052</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>1061</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1068</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>1067</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>1037</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>1075</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>1048</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>1059</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>1075</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>1088</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>1028</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>1005</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>1043</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>1050</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>1042</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1043</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>1089</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1010</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1062</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>1018</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>1015</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>1057</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>1024</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>985</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>1038</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>1008</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1090</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1010</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>1028</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>1057</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1012</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>1066</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1077</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>1048</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>1060</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>1059</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>1045</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>1058</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>1041</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>1014</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>1105</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>955</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>1055</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87">
-        <v>986</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1866,649 +1866,649 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="219">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="234">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="235">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="236">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="237">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="393">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="394">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="209">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="395">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>186</c:v>
-                </c:pt>
                 <c:pt idx="396">
-                  <c:v>141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="399">
                   <c:v>0</c:v>
@@ -2633,297 +2633,309 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$84</c:f>
+              <c:f>Randomness_Check!$A$1:$A$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$84</c:f>
+              <c:f>Randomness_Check!$B$1:$B$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1040</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1116</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1047</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1126</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1129</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1069</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1082</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1111</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>1103</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1076</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1166</c:v>
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1090</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1100</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1096</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1075</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1090</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1115</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1103</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1063</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1058</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1109</c:v>
+                  <c:v>1038</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1087</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1083</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1079</c:v>
+                  <c:v>1004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1074</c:v>
+                  <c:v>1072</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1069</c:v>
+                  <c:v>1073</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1051</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1105</c:v>
+                  <c:v>1068</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1092</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1143</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1123</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1038</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1040</c:v>
+                  <c:v>1068</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1098</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1069</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1064</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>1111</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1079</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1158</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>1057</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1142</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="74">
                   <c:v>1050</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>1063</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1107</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1141</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="75">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1046</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1092</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1077</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1118</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1102</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1064</c:v>
+                <c:pt idx="85">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,7 +4860,7 @@
         <v>-0.07999999999999996</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4904,7 +4916,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4928,7 +4940,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4936,7 +4948,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4984,7 +4996,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4992,7 +5004,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5000,7 +5012,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5032,7 +5044,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5040,7 +5052,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5048,7 +5060,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5056,7 +5068,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5064,7 +5076,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5072,7 +5084,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5088,7 +5100,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5096,7 +5108,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5104,7 +5116,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5112,7 +5124,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5120,7 +5132,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5128,7 +5140,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5136,7 +5148,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5160,7 +5172,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5168,7 +5180,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5176,7 +5188,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5184,7 +5196,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5192,7 +5204,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5200,7 +5212,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5208,7 +5220,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5216,7 +5228,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5224,7 +5236,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5232,7 +5244,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5240,7 +5252,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5248,7 +5260,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5256,7 +5268,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5264,7 +5276,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5272,7 +5284,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5280,7 +5292,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5288,7 +5300,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5296,7 +5308,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5304,7 +5316,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5312,7 +5324,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5320,7 +5332,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5328,7 +5340,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5336,7 +5348,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5344,7 +5356,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5352,7 +5364,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5360,7 +5372,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5368,7 +5380,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5376,7 +5388,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5384,7 +5396,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5392,7 +5404,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5400,7 +5412,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5408,7 +5420,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5416,7 +5428,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5424,7 +5436,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5432,7 +5444,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5440,7 +5452,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5448,7 +5460,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5456,7 +5468,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5464,7 +5476,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5472,7 +5484,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5480,7 +5492,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5488,7 +5500,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5496,7 +5508,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5504,7 +5516,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5512,7 +5524,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5520,7 +5532,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5528,7 +5540,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5536,7 +5548,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5544,7 +5556,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5552,7 +5564,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5560,7 +5572,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5568,7 +5580,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5576,7 +5588,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5584,7 +5596,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5592,7 +5604,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5600,7 +5612,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5608,7 +5620,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5616,7 +5628,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5624,7 +5636,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5632,7 +5644,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5640,7 +5652,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5648,7 +5660,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5656,7 +5668,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5664,7 +5676,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5672,7 +5684,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5680,7 +5692,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5688,7 +5700,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5696,7 +5708,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5704,7 +5716,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5712,7 +5724,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5720,7 +5732,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5728,7 +5740,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5736,7 +5748,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5744,7 +5756,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5752,7 +5764,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5760,7 +5772,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5768,7 +5780,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5776,7 +5788,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5784,7 +5796,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5792,7 +5804,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5800,7 +5812,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5808,7 +5820,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5816,7 +5828,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5824,7 +5836,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5832,7 +5844,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>170</v>
+        <v>83</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5840,7 +5852,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>174</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5848,7 +5860,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5856,7 +5868,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5864,7 +5876,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5872,7 +5884,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5880,7 +5892,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5888,7 +5900,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5896,7 +5908,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5904,7 +5916,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5912,7 +5924,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5920,7 +5932,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5928,7 +5940,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5936,7 +5948,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5944,7 +5956,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5952,7 +5964,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5960,7 +5972,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5968,7 +5980,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5976,7 +5988,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5984,7 +5996,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5992,7 +6004,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6000,7 +6012,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6008,7 +6020,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6016,7 +6028,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6024,7 +6036,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6032,7 +6044,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6040,7 +6052,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6048,7 +6060,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6056,7 +6068,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6064,7 +6076,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6072,7 +6084,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6080,7 +6092,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6088,7 +6100,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6096,7 +6108,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6104,7 +6116,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6112,7 +6124,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6120,7 +6132,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6128,7 +6140,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6136,7 +6148,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6144,7 +6156,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6152,7 +6164,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6160,7 +6172,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6168,7 +6180,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6176,7 +6188,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6184,7 +6196,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6192,7 +6204,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6200,7 +6212,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6208,7 +6220,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6216,7 +6228,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6224,7 +6236,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6232,7 +6244,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6240,7 +6252,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6248,7 +6260,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6256,7 +6268,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6264,7 +6276,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6272,7 +6284,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6280,7 +6292,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6288,7 +6300,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6296,7 +6308,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6304,7 +6316,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6312,7 +6324,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6320,7 +6332,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6328,7 +6340,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6336,7 +6348,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6344,7 +6356,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6352,7 +6364,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6360,7 +6372,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6368,7 +6380,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6376,7 +6388,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6384,7 +6396,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6392,7 +6404,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6400,7 +6412,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>130</v>
+        <v>63</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6408,7 +6420,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>165</v>
+        <v>54</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6416,7 +6428,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>143</v>
+        <v>45</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6424,7 +6436,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>155</v>
+        <v>48</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6432,7 +6444,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>185</v>
+        <v>67</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6440,7 +6452,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>230</v>
+        <v>58</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6448,7 +6460,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>231</v>
+        <v>61</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6456,7 +6468,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>210</v>
+        <v>51</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6464,7 +6476,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>240</v>
+        <v>44</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6472,7 +6484,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>239</v>
+        <v>34</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6480,7 +6492,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>269</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6488,7 +6500,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>294</v>
+        <v>25</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6496,7 +6508,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>315</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6504,7 +6516,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>277</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6512,7 +6524,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6520,7 +6532,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6528,7 +6540,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6536,7 +6548,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6544,7 +6556,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6552,7 +6564,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6560,7 +6572,7 @@
         <v>0.99</v>
       </c>
       <c r="B399">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6596,7 +6608,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6604,7 +6616,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6612,18 +6624,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>1040</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>1116</v>
+        <v>996</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6631,107 +6643,107 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1047</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>1115</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>1126</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B7">
-        <v>1129</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B8">
-        <v>1095</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>1060</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>1068</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>1046</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>1032</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>1101</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>1069</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>1093</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>1071</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>1082</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1111</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>1103</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>1076</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>1166</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -6741,312 +6753,332 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>1090</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1100</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>1096</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>1075</v>
+        <v>977</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>1090</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28">
-        <v>1115</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29">
-        <v>1103</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31">
-        <v>1058</v>
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32">
-        <v>1109</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33">
-        <v>1087</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34">
-        <v>1083</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35">
-        <v>1079</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39">
-        <v>1105</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40">
-        <v>1092</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41">
-        <v>1143</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42">
-        <v>1123</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43">
-        <v>1038</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44">
-        <v>1040</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45">
-        <v>1098</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46">
-        <v>1069</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47">
-        <v>1064</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48">
-        <v>1111</v>
+        <v>978</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49">
-        <v>1096</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50">
-        <v>1079</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51">
-        <v>1067</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52">
-        <v>1112</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53">
-        <v>1096</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54">
-        <v>1041</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55">
-        <v>1040</v>
+        <v>997</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56">
-        <v>1067</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57">
-        <v>1105</v>
+        <v>980</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58">
-        <v>1158</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59">
-        <v>1057</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61">
-        <v>1142</v>
+        <v>981</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62">
-        <v>1073</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63">
-        <v>1050</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64">
-        <v>1063</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65">
-        <v>1107</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66">
-        <v>1093</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67">
-        <v>1073</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68">
-        <v>1101</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69">
-        <v>1089</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70">
-        <v>1009</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71">
-        <v>1141</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72">
-        <v>1096</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73">
-        <v>1046</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74">
-        <v>1073</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75">
-        <v>1092</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76">
-        <v>1046</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77">
-        <v>1073</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78">
-        <v>1112</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79">
-        <v>1085</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80">
-        <v>1096</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81">
-        <v>1077</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82">
-        <v>1118</v>
+        <v>991</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>1102</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84">
-        <v>1064</v>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1944,7 +1944,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
                   <c:v>0</c:v>
@@ -1968,10 +1968,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
                   <c:v>0</c:v>
@@ -1989,13 +1989,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>0</c:v>
@@ -2004,502 +2004,502 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>63</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>59</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>63</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>57</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>74</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>70</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>74</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>79</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>87</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>83</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>94</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>84</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>97</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>106</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>110</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>134</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>106</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>119</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>97</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>94</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>97</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>97</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>86</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>73</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>82</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>48</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>67</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>58</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>61</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>51</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>0</c:v>
@@ -2633,309 +2633,57 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$88</c:f>
+              <c:f>Randomness_Check!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$88</c:f>
+              <c:f>Randomness_Check!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1006</c:v>
+                  <c:v>7152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>996</c:v>
+                  <c:v>7235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>7105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1040</c:v>
+                  <c:v>7105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1020</c:v>
+                  <c:v>7096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1034</c:v>
+                  <c:v>7179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1092</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1082</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1072</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1054</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1061</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1111</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1056</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1024</c:v>
+                  <c:v>7128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,7 +4816,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5132,7 +4880,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5140,7 +4888,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5188,7 +4936,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5196,7 +4944,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5204,7 +4952,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5228,7 +4976,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5236,7 +4984,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5244,7 +4992,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5252,7 +5000,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5260,7 +5008,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5268,7 +5016,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5276,7 +5024,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5284,7 +5032,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5300,7 +5048,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5308,7 +5056,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5316,7 +5064,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5324,7 +5072,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5332,7 +5080,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5340,7 +5088,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5348,7 +5096,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5356,7 +5104,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5364,7 +5112,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5372,7 +5120,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5380,7 +5128,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5388,7 +5136,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5396,7 +5144,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5404,7 +5152,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5412,7 +5160,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5420,7 +5168,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5428,7 +5176,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5436,7 +5184,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5444,7 +5192,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5452,7 +5200,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5460,7 +5208,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5468,7 +5216,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5476,7 +5224,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5484,7 +5232,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5492,7 +5240,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5500,7 +5248,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5508,7 +5256,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5516,7 +5264,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5524,7 +5272,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5532,7 +5280,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5540,7 +5288,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5548,7 +5296,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5556,7 +5304,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5564,7 +5312,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5572,7 +5320,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5580,7 +5328,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5588,7 +5336,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5596,7 +5344,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5604,7 +5352,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5612,7 +5360,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5620,7 +5368,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5628,7 +5376,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5636,7 +5384,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5644,7 +5392,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5652,7 +5400,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5660,7 +5408,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5668,7 +5416,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5676,7 +5424,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5684,7 +5432,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5692,7 +5440,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5700,7 +5448,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5708,7 +5456,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>63</v>
+        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5716,7 +5464,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>59</v>
+        <v>945</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5724,7 +5472,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5732,7 +5480,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>63</v>
+        <v>920</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5740,7 +5488,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5748,7 +5496,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>57</v>
+        <v>490</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5756,7 +5504,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>74</v>
+        <v>483</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5764,7 +5512,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>70</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5772,7 +5520,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5780,7 +5528,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>74</v>
+        <v>481</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5788,7 +5536,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>79</v>
+        <v>953</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5796,7 +5544,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>87</v>
+        <v>912</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5804,7 +5552,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>83</v>
+        <v>500</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5812,7 +5560,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5820,7 +5568,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5828,7 +5576,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>84</v>
+        <v>460</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5836,7 +5584,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5844,7 +5592,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5852,7 +5600,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5860,7 +5608,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5868,7 +5616,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5876,7 +5624,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5884,7 +5632,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5892,7 +5640,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5900,7 +5648,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5908,7 +5656,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5916,7 +5664,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5924,7 +5672,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5932,7 +5680,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5940,7 +5688,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5948,7 +5696,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5956,7 +5704,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5964,7 +5712,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5972,7 +5720,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5980,7 +5728,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5988,7 +5736,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5996,7 +5744,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -6004,7 +5752,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6012,7 +5760,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6020,7 +5768,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6028,7 +5776,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6036,7 +5784,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6044,7 +5792,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6052,7 +5800,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6060,7 +5808,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6068,7 +5816,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6076,7 +5824,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6084,7 +5832,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6092,7 +5840,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6100,7 +5848,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6108,7 +5856,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6116,7 +5864,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6124,7 +5872,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6132,7 +5880,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6140,7 +5888,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6148,7 +5896,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6156,7 +5904,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6164,7 +5912,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6172,7 +5920,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6180,7 +5928,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6188,7 +5936,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6196,7 +5944,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6204,7 +5952,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6212,7 +5960,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6220,7 +5968,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6228,7 +5976,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6236,7 +5984,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6244,7 +5992,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6252,7 +6000,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6260,7 +6008,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6268,7 +6016,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6276,7 +6024,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6284,7 +6032,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6292,7 +6040,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6300,7 +6048,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6308,7 +6056,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6316,7 +6064,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6324,7 +6072,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6332,7 +6080,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6340,7 +6088,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6348,7 +6096,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6356,7 +6104,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6364,7 +6112,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6372,7 +6120,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6380,7 +6128,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6388,7 +6136,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6396,7 +6144,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6404,7 +6152,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6412,7 +6160,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6420,7 +6168,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6428,7 +6176,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6436,7 +6184,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>48</v>
+        <v>458</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6444,7 +6192,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>67</v>
+        <v>478</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6452,7 +6200,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>58</v>
+        <v>463</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6460,7 +6208,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>61</v>
+        <v>464</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6468,7 +6216,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>51</v>
+        <v>490</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6476,7 +6224,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6484,7 +6232,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6492,7 +6240,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6500,7 +6248,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6508,7 +6256,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6516,7 +6264,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6524,7 +6272,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6532,7 +6280,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6540,7 +6288,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>542</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6548,7 +6296,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6608,7 +6356,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6616,7 +6364,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6624,461 +6372,49 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1006</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>996</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1024</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1040</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>41</v>
-      </c>
       <c r="B6">
-        <v>1020</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>78</v>
-      </c>
       <c r="B7">
-        <v>1034</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>56</v>
-      </c>
       <c r="B8">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88">
-        <v>1024</v>
+        <v>7128</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -2040,472 +2040,472 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>475</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>945</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>920</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>490</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>483</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>486</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>481</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>953</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>912</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>500</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>460</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>0</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>458</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>478</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>463</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>464</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>490</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>0</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>0</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>0</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>0</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>0</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>0</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>542</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="398">
                   <c:v>0</c:v>
@@ -2633,57 +2633,111 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$8</c:f>
+              <c:f>Randomness_Check!$A$1:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$8</c:f>
+              <c:f>Randomness_Check!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7152</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7235</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7105</c:v>
+                  <c:v>3061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7105</c:v>
+                  <c:v>3046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7096</c:v>
+                  <c:v>3013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7179</c:v>
+                  <c:v>3044</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7128</c:v>
+                  <c:v>3058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3042</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3052</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3056</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5072,7 +5126,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5080,7 +5134,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5088,7 +5142,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5096,7 +5150,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5104,7 +5158,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5120,7 +5174,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5128,7 +5182,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5136,7 +5190,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5144,7 +5198,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5152,7 +5206,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5160,7 +5214,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5168,7 +5222,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5176,7 +5230,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5184,7 +5238,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5192,7 +5246,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5200,7 +5254,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5208,7 +5262,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5216,7 +5270,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5224,7 +5278,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5232,7 +5286,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5240,7 +5294,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5248,7 +5302,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5256,7 +5310,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5264,7 +5318,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5272,7 +5326,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5280,7 +5334,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5288,7 +5342,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5296,7 +5350,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5304,7 +5358,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5312,7 +5366,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5320,7 +5374,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5328,7 +5382,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5336,7 +5390,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5344,7 +5398,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5352,7 +5406,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5360,7 +5414,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5368,7 +5422,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5376,7 +5430,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5384,7 +5438,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5392,7 +5446,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5400,7 +5454,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5408,7 +5462,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5416,7 +5470,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5424,7 +5478,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5432,7 +5486,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5440,7 +5494,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5448,7 +5502,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5456,7 +5510,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>475</v>
+        <v>59</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5464,7 +5518,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>945</v>
+        <v>59</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5472,7 +5526,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5480,7 +5534,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>920</v>
+        <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5488,7 +5542,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5496,7 +5550,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>490</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5504,7 +5558,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>483</v>
+        <v>116</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5512,7 +5566,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>486</v>
+        <v>136</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5520,7 +5574,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5528,7 +5582,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>481</v>
+        <v>151</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5536,7 +5590,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>953</v>
+        <v>152</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5544,7 +5598,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>912</v>
+        <v>144</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5552,7 +5606,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>500</v>
+        <v>151</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5560,7 +5614,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5568,7 +5622,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5576,7 +5630,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>460</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5584,7 +5638,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5592,7 +5646,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5600,7 +5654,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5608,7 +5662,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5616,7 +5670,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5624,7 +5678,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5632,7 +5686,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5640,7 +5694,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5648,7 +5702,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5656,7 +5710,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5664,7 +5718,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5672,7 +5726,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5680,7 +5734,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5688,7 +5742,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5696,7 +5750,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5704,7 +5758,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5712,7 +5766,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5720,7 +5774,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5728,7 +5782,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5736,7 +5790,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5744,7 +5798,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5752,7 +5806,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5760,7 +5814,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5768,7 +5822,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5776,7 +5830,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5784,7 +5838,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5792,7 +5846,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5800,7 +5854,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5808,7 +5862,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5816,7 +5870,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5824,7 +5878,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5832,7 +5886,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5840,7 +5894,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5848,7 +5902,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5856,7 +5910,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5864,7 +5918,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5872,7 +5926,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5880,7 +5934,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5888,7 +5942,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5896,7 +5950,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5904,7 +5958,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5912,7 +5966,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5920,7 +5974,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5928,7 +5982,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5936,7 +5990,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5944,7 +5998,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5952,7 +6006,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5960,7 +6014,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5968,7 +6022,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5976,7 +6030,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5984,7 +6038,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5992,7 +6046,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6000,7 +6054,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6008,7 +6062,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6016,7 +6070,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6024,7 +6078,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6032,7 +6086,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6040,7 +6094,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6048,7 +6102,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6056,7 +6110,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6064,7 +6118,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6072,7 +6126,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6080,7 +6134,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6088,7 +6142,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6096,7 +6150,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6104,7 +6158,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6112,7 +6166,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6120,7 +6174,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6128,7 +6182,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6136,7 +6190,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6144,7 +6198,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6152,7 +6206,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6160,7 +6214,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6168,7 +6222,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6176,7 +6230,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6184,7 +6238,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>458</v>
+        <v>131</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6192,7 +6246,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>478</v>
+        <v>134</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6200,7 +6254,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>463</v>
+        <v>155</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6208,7 +6262,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>464</v>
+        <v>178</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6216,7 +6270,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>490</v>
+        <v>226</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6224,7 +6278,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6232,7 +6286,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6240,7 +6294,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6248,7 +6302,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>262</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6256,7 +6310,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6264,7 +6318,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6272,7 +6326,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6280,7 +6334,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6288,7 +6342,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>542</v>
+        <v>99</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6296,7 +6350,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6304,7 +6358,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6312,7 +6366,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6356,7 +6410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6364,7 +6418,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6372,49 +6426,135 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>7152</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>7235</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>7105</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>7105</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="6" spans="1:2">
+      <c r="A6">
+        <v>13</v>
+      </c>
       <c r="B6">
-        <v>7096</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7">
-        <v>7179</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8">
-        <v>7128</v>
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24">
+        <v>3056</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1821,691 +1821,691 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>4</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>4</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>9</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>13</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>8</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>14</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>16</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="255">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="273">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="256">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="274">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="276">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="278">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="277">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="278">
+                <c:pt idx="279">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="280">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="279">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="281">
-                  <c:v>33</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>38</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>44</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>52</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>52</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>60</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>46</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>46</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>59</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>59</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>46</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>70</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>84</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>100</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>116</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>136</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>144</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>151</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>152</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>144</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>151</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>133</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>77</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>95</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>47</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>27</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>42</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>26</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>37</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>49</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>56</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>46</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>50</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>53</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>40</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>46</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>38</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>29</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>21</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>30</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>41</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>54</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>86</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>113</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>134</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>130</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>124</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>129</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>105</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>29</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>47</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>142</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>122</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>73</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>95</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>131</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>134</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>178</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>226</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>244</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>230</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>206</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>167</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>159</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="398">
                   <c:v>0</c:v>
@@ -2633,111 +2633,120 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Randomness_Check!$A$1:$A$24</c:f>
+              <c:f>Randomness_Check!$A$1:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Randomness_Check!$B$1:$B$24</c:f>
+              <c:f>Randomness_Check!$B$1:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3013</c:v>
+                  <c:v>2697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3013</c:v>
+                  <c:v>2675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3061</c:v>
+                  <c:v>2701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3046</c:v>
+                  <c:v>2623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3013</c:v>
+                  <c:v>2691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3044</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3058</c:v>
+                  <c:v>2738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3021</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3055</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3042</c:v>
+                  <c:v>2693</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3050</c:v>
+                  <c:v>2618</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3028</c:v>
+                  <c:v>2843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3017</c:v>
+                  <c:v>2708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3052</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3088</c:v>
+                  <c:v>2734</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3006</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3028</c:v>
+                  <c:v>2693</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3056</c:v>
+                  <c:v>2666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2987</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3099</c:v>
+                  <c:v>2624</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3024</c:v>
+                  <c:v>2704</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3143</c:v>
+                  <c:v>2670</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3056</c:v>
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,7 +4551,7 @@
         <v>-0.155</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4550,7 +4559,7 @@
         <v>-0.15</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4558,7 +4567,7 @@
         <v>-0.145</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4566,7 +4575,7 @@
         <v>-0.14</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4574,7 +4583,7 @@
         <v>-0.135</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4582,7 +4591,7 @@
         <v>-0.13</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4590,7 +4599,7 @@
         <v>-0.125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4598,7 +4607,7 @@
         <v>-0.12</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4606,7 +4615,7 @@
         <v>-0.115</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4614,7 +4623,7 @@
         <v>-0.11</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4622,7 +4631,7 @@
         <v>-0.105</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4630,7 +4639,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4638,7 +4647,7 @@
         <v>-0.09499999999999997</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4646,7 +4655,7 @@
         <v>-0.08999999999999997</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4654,7 +4663,7 @@
         <v>-0.08499999999999996</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4662,7 +4671,7 @@
         <v>-0.07999999999999996</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4670,7 +4679,7 @@
         <v>-0.07499999999999996</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4678,7 +4687,7 @@
         <v>-0.06999999999999995</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4686,7 +4695,7 @@
         <v>-0.06499999999999995</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4694,7 +4703,7 @@
         <v>-0.05999999999999994</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4702,7 +4711,7 @@
         <v>-0.05499999999999994</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4710,7 +4719,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4718,7 +4727,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4726,7 +4735,7 @@
         <v>-0.04000000000000004</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4734,7 +4743,7 @@
         <v>-0.03500000000000003</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4742,7 +4751,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4750,7 +4759,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4758,7 +4767,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4766,7 +4775,7 @@
         <v>-0.01500000000000001</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4774,7 +4783,7 @@
         <v>-0.01000000000000001</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4782,7 +4791,7 @@
         <v>-0.005000000000000004</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4790,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4798,7 +4807,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4806,7 +4815,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4814,7 +4823,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4822,7 +4831,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4830,7 +4839,7 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4838,7 +4847,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4846,7 +4855,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4854,7 +4863,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4862,7 +4871,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4870,7 +4879,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4878,7 +4887,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4886,7 +4895,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4894,7 +4903,7 @@
         <v>0.06499999999999995</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4902,7 +4911,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4910,7 +4919,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4918,7 +4927,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4926,7 +4935,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4934,7 +4943,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4942,7 +4951,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4950,7 +4959,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4958,7 +4967,7 @@
         <v>0.105</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4966,7 +4975,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4974,7 +4983,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4982,7 +4991,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4990,7 +4999,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4998,7 +5007,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5006,7 +5015,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5014,7 +5023,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5022,7 +5031,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5030,7 +5039,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5038,7 +5047,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5046,7 +5055,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5054,7 +5063,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5062,7 +5071,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5070,7 +5079,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5078,7 +5087,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5086,7 +5095,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5094,7 +5103,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5102,7 +5111,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5110,7 +5119,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5118,7 +5127,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5126,7 +5135,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5134,7 +5143,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5142,7 +5151,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5150,7 +5159,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5158,7 +5167,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5166,7 +5175,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5174,7 +5183,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5182,7 +5191,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5190,7 +5199,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5198,7 +5207,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5206,7 +5215,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5214,7 +5223,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5222,7 +5231,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5230,7 +5239,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5238,7 +5247,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5246,7 +5255,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5254,7 +5263,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5262,7 +5271,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5270,7 +5279,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5278,7 +5287,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5286,7 +5295,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5294,7 +5303,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5302,7 +5311,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5310,7 +5319,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5318,7 +5327,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5326,7 +5335,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5334,7 +5343,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5342,7 +5351,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5350,7 +5359,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5358,7 +5367,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5366,7 +5375,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5374,7 +5383,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5382,7 +5391,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5398,7 +5407,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5406,7 +5415,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5414,7 +5423,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5422,7 +5431,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5430,7 +5439,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5438,7 +5447,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5446,7 +5455,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5454,7 +5463,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5462,7 +5471,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5470,7 +5479,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5478,7 +5487,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5486,7 +5495,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5494,7 +5503,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5502,7 +5511,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5510,7 +5519,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5518,7 +5527,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5526,7 +5535,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5534,7 +5543,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5542,7 +5551,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5550,7 +5559,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5558,7 +5567,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5566,7 +5575,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>136</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5574,7 +5583,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>144</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5582,7 +5591,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>151</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5590,7 +5599,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5598,7 +5607,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>144</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5606,7 +5615,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5614,7 +5623,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>133</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5622,7 +5631,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5630,7 +5639,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5638,7 +5647,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5646,7 +5655,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5654,7 +5663,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5662,7 +5671,7 @@
         <v>0.5449999999999999</v>
       </c>
       <c r="B310">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5670,7 +5679,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5678,7 +5687,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5686,7 +5695,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5694,7 +5703,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5702,7 +5711,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5710,7 +5719,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5718,7 +5727,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5726,7 +5735,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5734,7 +5743,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5742,7 +5751,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5750,7 +5759,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5758,7 +5767,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5766,7 +5775,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5774,7 +5783,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5782,7 +5791,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5790,7 +5799,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5798,7 +5807,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5806,7 +5815,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5814,7 +5823,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5822,7 +5831,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5830,7 +5839,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5838,7 +5847,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5846,7 +5855,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5854,7 +5863,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5862,7 +5871,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5870,7 +5879,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5878,7 +5887,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5886,7 +5895,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5894,7 +5903,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5902,7 +5911,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5910,7 +5919,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5918,7 +5927,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5926,7 +5935,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5934,7 +5943,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5942,7 +5951,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5950,7 +5959,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5958,7 +5967,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5966,7 +5975,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5974,7 +5983,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5982,7 +5991,7 @@
         <v>0.7450000000000001</v>
       </c>
       <c r="B350">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5990,7 +5999,7 @@
         <v>0.75</v>
       </c>
       <c r="B351">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5998,7 +6007,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6006,7 +6015,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6014,7 +6023,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6022,7 +6031,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6030,7 +6039,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6038,7 +6047,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6046,7 +6055,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6054,7 +6063,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6062,7 +6071,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6070,7 +6079,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6078,7 +6087,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6086,7 +6095,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6094,7 +6103,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6102,7 +6111,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6110,7 +6119,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6118,7 +6127,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6126,7 +6135,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6134,7 +6143,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6142,7 +6151,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6150,7 +6159,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6158,7 +6167,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6166,7 +6175,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6174,7 +6183,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6182,7 +6191,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6190,7 +6199,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6198,7 +6207,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6206,7 +6215,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6214,7 +6223,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6222,7 +6231,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6230,7 +6239,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6238,7 +6247,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6246,7 +6255,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6254,7 +6263,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6262,7 +6271,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6270,7 +6279,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6278,7 +6287,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6286,7 +6295,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6294,7 +6303,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6302,7 +6311,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6310,7 +6319,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6318,7 +6327,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6326,7 +6335,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6334,7 +6343,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6342,7 +6351,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6350,7 +6359,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6358,7 +6367,7 @@
         <v>0.98</v>
       </c>
       <c r="B397">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6366,7 +6375,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6410,7 +6419,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6418,7 +6427,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6426,135 +6435,150 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>3013</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3013</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>3061</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>3046</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>3013</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>3044</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8">
-        <v>3058</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
-        <v>3021</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>3055</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>3042</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>3050</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>3028</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>3017</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>3052</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>3088</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>3006</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>3028</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>3056</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>2987</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>3099</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>3024</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>3143</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>3056</v>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27">
+        <v>2679</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1821,685 +1821,685 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="308">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="310">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="353">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="311">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="312">
+                <c:pt idx="354">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="395">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="396">
                   <c:v>0</c:v>
@@ -2638,25 +2638,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,82 +2671,82 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2697</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2675</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2623</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2738</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2615</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2716</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2693</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2618</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2843</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2708</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2737</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2734</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>2643</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>2693</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2624</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2704</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2670</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2710</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2672</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>2730</c:v>
+                  <c:v>2642</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2679</c:v>
+                  <c:v>2668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4551,7 +4551,7 @@
         <v>-0.155</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>-0.15</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>-0.145</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>-0.14</v>
       </c>
       <c r="B173">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>-0.135</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>-0.13</v>
       </c>
       <c r="B175">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>-0.125</v>
       </c>
       <c r="B176">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>-0.12</v>
       </c>
       <c r="B177">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>-0.115</v>
       </c>
       <c r="B178">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>-0.11</v>
       </c>
       <c r="B179">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>-0.105</v>
       </c>
       <c r="B180">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="B181">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>-0.09499999999999997</v>
       </c>
       <c r="B182">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>-0.08999999999999997</v>
       </c>
       <c r="B183">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>-0.08499999999999996</v>
       </c>
       <c r="B184">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>-0.07999999999999996</v>
       </c>
       <c r="B185">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>-0.07499999999999996</v>
       </c>
       <c r="B186">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>-0.06999999999999995</v>
       </c>
       <c r="B187">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>-0.06499999999999995</v>
       </c>
       <c r="B188">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>-0.05999999999999994</v>
       </c>
       <c r="B189">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>-0.05499999999999994</v>
       </c>
       <c r="B190">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>-0.04999999999999993</v>
       </c>
       <c r="B191">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>-0.04499999999999993</v>
       </c>
       <c r="B192">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>-0.04000000000000004</v>
       </c>
       <c r="B193">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>-0.03500000000000003</v>
       </c>
       <c r="B194">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>-0.03000000000000003</v>
       </c>
       <c r="B195">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="B196">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="B197">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>-0.01500000000000001</v>
       </c>
       <c r="B198">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>-0.01000000000000001</v>
       </c>
       <c r="B199">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>-0.005000000000000004</v>
       </c>
       <c r="B200">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>0.005000000000000115</v>
       </c>
       <c r="B202">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B203">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>0.01500000000000012</v>
       </c>
       <c r="B204">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="B205">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="B206">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="B207">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>0.03499999999999992</v>
       </c>
       <c r="B208">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="B209">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>0.04499999999999993</v>
       </c>
       <c r="B210">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="B211">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>0.05499999999999994</v>
       </c>
       <c r="B212">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="B213">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>0.06499999999999995</v>
       </c>
       <c r="B214">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="B215">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="B216">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="B217">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>0.08499999999999996</v>
       </c>
       <c r="B218">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="B219">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>0.09499999999999997</v>
       </c>
       <c r="B220">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="B221">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>0.105</v>
       </c>
       <c r="B222">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="B223">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>0.115</v>
       </c>
       <c r="B224">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="B225">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>0.125</v>
       </c>
       <c r="B226">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="B227">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>0.135</v>
       </c>
       <c r="B228">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="B229">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>0.145</v>
       </c>
       <c r="B230">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="B231">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>0.155</v>
       </c>
       <c r="B232">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>0.1599999999999999</v>
       </c>
       <c r="B233">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>0.165</v>
       </c>
       <c r="B234">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>0.1699999999999999</v>
       </c>
       <c r="B235">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>0.175</v>
       </c>
       <c r="B236">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>0.1799999999999999</v>
       </c>
       <c r="B237">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>0.1850000000000001</v>
       </c>
       <c r="B238">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="B239">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>0.1950000000000001</v>
       </c>
       <c r="B240">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>0.2</v>
       </c>
       <c r="B241">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>0.2050000000000001</v>
       </c>
       <c r="B242">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>0.21</v>
       </c>
       <c r="B243">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>0.2150000000000001</v>
       </c>
       <c r="B244">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>0.22</v>
       </c>
       <c r="B245">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>0.2250000000000001</v>
       </c>
       <c r="B246">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>0.23</v>
       </c>
       <c r="B247">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>0.2350000000000001</v>
       </c>
       <c r="B248">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>0.24</v>
       </c>
       <c r="B249">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>0.2450000000000001</v>
       </c>
       <c r="B250">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>0.25</v>
       </c>
       <c r="B251">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>0.2550000000000001</v>
       </c>
       <c r="B252">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>0.26</v>
       </c>
       <c r="B253">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>0.2650000000000001</v>
       </c>
       <c r="B254">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>0.27</v>
       </c>
       <c r="B255">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>0.2750000000000001</v>
       </c>
       <c r="B256">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>0.28</v>
       </c>
       <c r="B257">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="B258">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>0.29</v>
       </c>
       <c r="B259">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>0.2949999999999999</v>
       </c>
       <c r="B260">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>0.3</v>
       </c>
       <c r="B261">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>0.3049999999999999</v>
       </c>
       <c r="B262">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>0.3100000000000001</v>
       </c>
       <c r="B263">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>0.3149999999999999</v>
       </c>
       <c r="B264">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>0.3200000000000001</v>
       </c>
       <c r="B265">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>0.325</v>
       </c>
       <c r="B266">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="B267">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>0.335</v>
       </c>
       <c r="B268">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>0.3400000000000001</v>
       </c>
       <c r="B269">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>0.345</v>
       </c>
       <c r="B270">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="B271">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>0.355</v>
       </c>
       <c r="B272">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>0.3600000000000001</v>
       </c>
       <c r="B273">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>0.365</v>
       </c>
       <c r="B274">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="B275">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>0.375</v>
       </c>
       <c r="B276">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>0.3800000000000001</v>
       </c>
       <c r="B277">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>0.385</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="B279">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>0.395</v>
       </c>
       <c r="B280">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>0.4000000000000001</v>
       </c>
       <c r="B281">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>0.405</v>
       </c>
       <c r="B282">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>0.4099999999999999</v>
       </c>
       <c r="B283">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>0.415</v>
       </c>
       <c r="B284">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="B285">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>0.425</v>
       </c>
       <c r="B286">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="B287">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>0.4350000000000001</v>
       </c>
       <c r="B288">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="B289">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>0.4450000000000001</v>
       </c>
       <c r="B290">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>0.45</v>
       </c>
       <c r="B291">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>0.4550000000000001</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>0.46</v>
       </c>
       <c r="B293">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="B294">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>0.47</v>
       </c>
       <c r="B295">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>0.4750000000000001</v>
       </c>
       <c r="B296">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>0.48</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>0.4850000000000001</v>
       </c>
       <c r="B298">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>0.49</v>
       </c>
       <c r="B299">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>0.4950000000000001</v>
       </c>
       <c r="B300">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>0.5</v>
       </c>
       <c r="B301">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>0.5050000000000001</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>0.51</v>
       </c>
       <c r="B303">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>0.5150000000000001</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>0.52</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>0.5250000000000001</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>0.53</v>
       </c>
       <c r="B307">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>0.5350000000000001</v>
       </c>
       <c r="B308">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>0.54</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>0.55</v>
       </c>
       <c r="B311">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B313">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>0.575</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>0.585</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>0.5900000000000001</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>0.595</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>0.605</v>
       </c>
       <c r="B322">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>0.6100000000000001</v>
       </c>
       <c r="B323">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>0.615</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>0.6200000000000001</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>0.625</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>0.6300000000000001</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>0.635</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>0.6400000000000001</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>0.645</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>0.6500000000000001</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>0.655</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>0.665</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>0.675</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>0.6950000000000001</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>0.7</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>0.7050000000000001</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>0.71</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>0.7150000000000001</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>0.72</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>0.73</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>0.74</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>0.7550000000000001</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>0.76</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>0.7650000000000001</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>0.77</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>0.7750000000000001</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>0.78</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>0.7850000000000001</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>0.79</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>0.8</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>0.8049999999999999</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>0.825</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>0.835</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>0.845</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>0.855</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>0.8600000000000001</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>0.865</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>0.8700000000000001</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>0.875</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>0.8800000000000001</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>0.885</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>0.8900000000000001</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>0.895</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>0.905</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>323</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>0.915</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>345</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>0.925</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>0.95</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>0.9550000000000001</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>0.96</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>0.9650000000000001</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>0.97</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6427,7 +6427,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6435,150 +6435,150 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>2697</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2675</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>2701</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>2623</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2691</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>2720</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8">
-        <v>2738</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9">
-        <v>2615</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>2716</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>2693</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12">
-        <v>2618</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>2843</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>2708</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>2737</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>2734</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>2643</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>2693</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>2666</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>2700</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>2624</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>2704</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>2670</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>2710</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25">
-        <v>2672</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26">
-        <v>2730</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27">
-        <v>2679</v>
+        <v>2668</v>
       </c>
     </row>
   </sheetData>

--- a/Pearsons_CC/Python_Code/histogram.sample.xlsx
+++ b/Pearsons_CC/Python_Code/histogram.sample.xlsx
@@ -1875,643 +1875,643 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>